--- a/backend/database/KTTONG_1.xlsx
+++ b/backend/database/KTTONG_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR THIEN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\web_source\appThuHocPhi\backend\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C465944-4F82-4997-BB52-B4B1FD659E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AAAEFF-A50B-4372-9F73-312619A98536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="360" windowWidth="33345" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,19 +349,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3177"/>
+  <dimension ref="A1:B3174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -670,7 +666,7 @@
         <v>30341</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2346000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +778,7 @@
         <v>29292</v>
       </c>
       <c r="B53">
-        <v>972000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -830,7 +826,7 @@
         <v>30095</v>
       </c>
       <c r="B59">
-        <v>900000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -838,7 +834,7 @@
         <v>30312</v>
       </c>
       <c r="B60">
-        <v>972000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +922,7 @@
         <v>29636</v>
       </c>
       <c r="B71">
-        <v>8580000</v>
+        <v>4290000</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +986,7 @@
         <v>30303</v>
       </c>
       <c r="B79">
-        <v>972000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1018,7 @@
         <v>29684</v>
       </c>
       <c r="B83">
-        <v>486000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1154,7 @@
         <v>30227</v>
       </c>
       <c r="B100">
-        <v>4290000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1170,7 @@
         <v>29762</v>
       </c>
       <c r="B102">
-        <v>9550000</v>
+        <v>7204000</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1306,7 @@
         <v>29777</v>
       </c>
       <c r="B119">
-        <v>8580000</v>
+        <v>4290000</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1330,7 @@
         <v>29821</v>
       </c>
       <c r="B122">
-        <v>4250000</v>
+        <v>4290000</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1426,7 @@
         <v>29682</v>
       </c>
       <c r="B134">
-        <v>4290000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1442,7 @@
         <v>30218</v>
       </c>
       <c r="B136">
-        <v>710000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2050,7 @@
         <v>30410</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>4290000</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2074,7 @@
         <v>29784</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>4290000</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2098,7 @@
         <v>29669</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>4290000</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2362,7 @@
         <v>28152</v>
       </c>
       <c r="B251">
-        <v>516000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2714,7 @@
         <v>27334</v>
       </c>
       <c r="B295">
-        <v>1032000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2722,7 @@
         <v>27381</v>
       </c>
       <c r="B296">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2730,7 @@
         <v>27617</v>
       </c>
       <c r="B297">
-        <v>516000</v>
+        <v>1032000</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2898,7 @@
         <v>28031</v>
       </c>
       <c r="B318">
-        <v>4440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2906,7 @@
         <v>27325</v>
       </c>
       <c r="B319">
-        <v>2064000</v>
+        <v>3096000</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2986,7 @@
         <v>27572</v>
       </c>
       <c r="B329">
-        <v>4440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -3030,7 +3026,7 @@
         <v>28251</v>
       </c>
       <c r="B334">
-        <v>8880000</v>
+        <v>4440000</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -3110,7 +3106,7 @@
         <v>28458</v>
       </c>
       <c r="B344">
-        <v>2580000</v>
+        <v>3408000</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -3158,7 +3154,7 @@
         <v>27840</v>
       </c>
       <c r="B350">
-        <v>8880000</v>
+        <v>4440000</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3234,7 @@
         <v>28252</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -3502,7 +3498,7 @@
         <v>27950</v>
       </c>
       <c r="B393">
-        <v>8880000</v>
+        <v>4440000</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3590,7 +3586,7 @@
         <v>28100</v>
       </c>
       <c r="B404">
-        <v>5150000</v>
+        <v>710000</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -3742,7 +3738,7 @@
         <v>28384</v>
       </c>
       <c r="B423">
-        <v>5462000</v>
+        <v>3086000</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -4075,15 +4071,15 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>27923</v>
+        <v>28033</v>
       </c>
       <c r="B465">
-        <v>0</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>28033</v>
+        <v>27425</v>
       </c>
       <c r="B466">
         <v>0</v>
@@ -4091,7 +4087,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>27425</v>
+        <v>27978</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -4099,7 +4095,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>27978</v>
+        <v>27616</v>
       </c>
       <c r="B468">
         <v>0</v>
@@ -4107,7 +4103,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>27616</v>
+        <v>28328</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -4115,7 +4111,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>28328</v>
+        <v>28223</v>
       </c>
       <c r="B470">
         <v>0</v>
@@ -4123,7 +4119,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>28223</v>
+        <v>27977</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -4131,7 +4127,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>27977</v>
+        <v>27923</v>
       </c>
       <c r="B472">
         <v>0</v>
@@ -4206,7 +4202,7 @@
         <v>26277</v>
       </c>
       <c r="B481">
-        <v>710000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4238,7 +4234,7 @@
         <v>26084</v>
       </c>
       <c r="B485">
-        <v>4590000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -4294,7 +4290,7 @@
         <v>26075</v>
       </c>
       <c r="B492">
-        <v>2184000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -4342,7 +4338,7 @@
         <v>25734</v>
       </c>
       <c r="B498">
-        <v>9180000</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4398,7 +4394,7 @@
         <v>27000</v>
       </c>
       <c r="B505">
-        <v>1092000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -4606,7 +4602,7 @@
         <v>25660</v>
       </c>
       <c r="B531">
-        <v>730000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -4630,7 +4626,7 @@
         <v>26181</v>
       </c>
       <c r="B534">
-        <v>1092000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4762,7 @@
         <v>26042</v>
       </c>
       <c r="B551">
-        <v>0</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +4794,7 @@
         <v>26469</v>
       </c>
       <c r="B555">
-        <v>1092000</v>
+        <v>1638000</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4914,7 @@
         <v>26388</v>
       </c>
       <c r="B570">
-        <v>4590000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -4934,7 +4930,7 @@
         <v>26930</v>
       </c>
       <c r="B572">
-        <v>710000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,7 +5058,7 @@
         <v>27320</v>
       </c>
       <c r="B588">
-        <v>710000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -5254,7 +5250,7 @@
         <v>26079</v>
       </c>
       <c r="B612">
-        <v>9180000</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -5342,7 +5338,7 @@
         <v>25832</v>
       </c>
       <c r="B623">
-        <v>9180000</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -5390,7 +5386,7 @@
         <v>30821</v>
       </c>
       <c r="B629">
-        <v>12050000</v>
+        <v>7460000</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -5510,7 +5506,7 @@
         <v>26323</v>
       </c>
       <c r="B644">
-        <v>1670000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -5558,7 +5554,7 @@
         <v>26509</v>
       </c>
       <c r="B650">
-        <v>4590000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -5630,7 +5626,7 @@
         <v>24354</v>
       </c>
       <c r="B659">
-        <v>10040000</v>
+        <v>5020000</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -5646,7 +5642,7 @@
         <v>24014</v>
       </c>
       <c r="B661">
-        <v>5760000</v>
+        <v>5020000</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -5750,7 +5746,7 @@
         <v>24975</v>
       </c>
       <c r="B674">
-        <v>10040000</v>
+        <v>5020000</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -5766,7 +5762,7 @@
         <v>25122</v>
       </c>
       <c r="B676">
-        <v>360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -5830,7 +5826,7 @@
         <v>25475</v>
       </c>
       <c r="B684">
-        <v>0</v>
+        <v>5020000</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -5926,7 +5922,7 @@
         <v>25167</v>
       </c>
       <c r="B696">
-        <v>5620000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -5974,7 +5970,7 @@
         <v>24117</v>
       </c>
       <c r="B702">
-        <v>8808000</v>
+        <v>4404000</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -6030,7 +6026,7 @@
         <v>24963</v>
       </c>
       <c r="B709">
-        <v>616000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -6070,7 +6066,7 @@
         <v>24860</v>
       </c>
       <c r="B714">
-        <v>3788000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -6086,7 +6082,7 @@
         <v>24950</v>
       </c>
       <c r="B716">
-        <v>10780000</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -6126,7 +6122,7 @@
         <v>25492</v>
       </c>
       <c r="B721">
-        <v>10780000</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -6254,7 +6250,7 @@
         <v>24436</v>
       </c>
       <c r="B737">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
@@ -6286,7 +6282,7 @@
         <v>29346</v>
       </c>
       <c r="B741">
-        <v>1232000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
@@ -6294,7 +6290,7 @@
         <v>24815</v>
       </c>
       <c r="B742">
-        <v>1232000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
@@ -6614,7 +6610,7 @@
         <v>24530</v>
       </c>
       <c r="B782">
-        <v>0</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6670,7 +6666,7 @@
         <v>24595</v>
       </c>
       <c r="B789">
-        <v>1940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6782,7 +6778,7 @@
         <v>24790</v>
       </c>
       <c r="B803">
-        <v>0</v>
+        <v>5020000</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -7278,7 +7274,7 @@
         <v>29889</v>
       </c>
       <c r="B865">
-        <v>2784000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7318,7 +7314,7 @@
         <v>30363</v>
       </c>
       <c r="B870">
-        <v>696000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
@@ -7422,7 +7418,7 @@
         <v>30915</v>
       </c>
       <c r="B883">
-        <v>1392000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
@@ -7462,7 +7458,7 @@
         <v>30695</v>
       </c>
       <c r="B888">
-        <v>2277000</v>
+        <v>2973000</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
@@ -7526,7 +7522,7 @@
         <v>22972</v>
       </c>
       <c r="B896">
-        <v>180000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
@@ -7534,7 +7530,7 @@
         <v>29769</v>
       </c>
       <c r="B897">
-        <v>1392000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
@@ -7566,7 +7562,7 @@
         <v>23869</v>
       </c>
       <c r="B901">
-        <v>2784000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -7630,7 +7626,7 @@
         <v>30947</v>
       </c>
       <c r="B909">
-        <v>180000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
@@ -7902,7 +7898,7 @@
         <v>29310</v>
       </c>
       <c r="B943">
-        <v>885000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
@@ -7974,7 +7970,7 @@
         <v>30807</v>
       </c>
       <c r="B952">
-        <v>0</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -8046,7 +8042,7 @@
         <v>29749</v>
       </c>
       <c r="B961">
-        <v>0</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
@@ -8070,7 +8066,7 @@
         <v>29975</v>
       </c>
       <c r="B964">
-        <v>9680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
@@ -8142,7 +8138,7 @@
         <v>29272</v>
       </c>
       <c r="B973">
-        <v>0</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
@@ -8158,7 +8154,7 @@
         <v>29474</v>
       </c>
       <c r="B975">
-        <v>0</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -8190,7 +8186,7 @@
         <v>29440</v>
       </c>
       <c r="B979">
-        <v>19360000</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
@@ -8262,7 +8258,7 @@
         <v>30840</v>
       </c>
       <c r="B988">
-        <v>5480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
@@ -8334,7 +8330,7 @@
         <v>30274</v>
       </c>
       <c r="B997">
-        <v>2380000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +8386,7 @@
         <v>30389</v>
       </c>
       <c r="B1004">
-        <v>0</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
@@ -8518,7 +8514,7 @@
         <v>29465</v>
       </c>
       <c r="B1020">
-        <v>19360000</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
@@ -8718,7 +8714,7 @@
         <v>30692</v>
       </c>
       <c r="B1045">
-        <v>3070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
@@ -8814,7 +8810,7 @@
         <v>29276</v>
       </c>
       <c r="B1057">
-        <v>19360000</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
@@ -8894,7 +8890,7 @@
         <v>30008</v>
       </c>
       <c r="B1067">
-        <v>12060000</v>
+        <v>2380000</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
@@ -8990,7 +8986,7 @@
         <v>29756</v>
       </c>
       <c r="B1079">
-        <v>10960000</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
@@ -9382,7 +9378,7 @@
         <v>30705</v>
       </c>
       <c r="B1128">
-        <v>770000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
@@ -9718,7 +9714,7 @@
         <v>23503</v>
       </c>
       <c r="B1170">
-        <v>1350000</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
@@ -9742,7 +9738,7 @@
         <v>23009</v>
       </c>
       <c r="B1173">
-        <v>8176000</v>
+        <v>4088000</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
@@ -9758,7 +9754,7 @@
         <v>23432</v>
       </c>
       <c r="B1175">
-        <v>2784000</v>
+        <v>4176000</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
@@ -9878,7 +9874,7 @@
         <v>29151</v>
       </c>
       <c r="B1190">
-        <v>1392000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
@@ -9942,7 +9938,7 @@
         <v>23240</v>
       </c>
       <c r="B1198">
-        <v>0</v>
+        <v>8984000</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
@@ -10134,7 +10130,7 @@
         <v>23165</v>
       </c>
       <c r="B1222">
-        <v>6250000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
@@ -10198,7 +10194,7 @@
         <v>30194</v>
       </c>
       <c r="B1230">
-        <v>0</v>
+        <v>696000</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
@@ -10206,7 +10202,7 @@
         <v>30820</v>
       </c>
       <c r="B1231">
-        <v>1392000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
@@ -10246,7 +10242,7 @@
         <v>29290</v>
       </c>
       <c r="B1236">
-        <v>17968000</v>
+        <v>8984000</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
@@ -10262,7 +10258,7 @@
         <v>29283</v>
       </c>
       <c r="B1238">
-        <v>360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
@@ -10390,7 +10386,7 @@
         <v>29981</v>
       </c>
       <c r="B1254">
-        <v>1392000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
@@ -10422,7 +10418,7 @@
         <v>29955</v>
       </c>
       <c r="B1258">
-        <v>1312000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.25">
@@ -10446,7 +10442,7 @@
         <v>29131</v>
       </c>
       <c r="B1261">
-        <v>17968000</v>
+        <v>8984000</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
@@ -10526,7 +10522,7 @@
         <v>29970</v>
       </c>
       <c r="B1271">
-        <v>5480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
@@ -10598,7 +10594,7 @@
         <v>23517</v>
       </c>
       <c r="B1280">
-        <v>5480000</v>
+        <v>1280000</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
@@ -10614,7 +10610,7 @@
         <v>30265</v>
       </c>
       <c r="B1282">
-        <v>0</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
@@ -10670,7 +10666,7 @@
         <v>27292</v>
       </c>
       <c r="B1289">
-        <v>19360000</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
@@ -10886,7 +10882,7 @@
         <v>29214</v>
       </c>
       <c r="B1316">
-        <v>1392000</v>
+        <v>2088000</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
@@ -10926,7 +10922,7 @@
         <v>23209</v>
       </c>
       <c r="B1321">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
@@ -10950,7 +10946,7 @@
         <v>30457</v>
       </c>
       <c r="B1324">
-        <v>770000</v>
+        <v>3392000</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
@@ -10958,7 +10954,7 @@
         <v>29455</v>
       </c>
       <c r="B1325">
-        <v>885000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
@@ -10990,7 +10986,7 @@
         <v>30366</v>
       </c>
       <c r="B1329">
-        <v>5480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
@@ -11030,7 +11026,7 @@
         <v>30261</v>
       </c>
       <c r="B1334">
-        <v>1660000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
@@ -11086,7 +11082,7 @@
         <v>29470</v>
       </c>
       <c r="B1341">
-        <v>9680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
@@ -11118,7 +11114,7 @@
         <v>29457</v>
       </c>
       <c r="B1345">
-        <v>180000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
@@ -11270,7 +11266,7 @@
         <v>22881</v>
       </c>
       <c r="B1364">
-        <v>10960000</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
@@ -11278,7 +11274,7 @@
         <v>30944</v>
       </c>
       <c r="B1365">
-        <v>0</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
@@ -11334,7 +11330,7 @@
         <v>29631</v>
       </c>
       <c r="B1372">
-        <v>9680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.25">
@@ -11390,7 +11386,7 @@
         <v>29816</v>
       </c>
       <c r="B1379">
-        <v>1290000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
@@ -11518,7 +11514,7 @@
         <v>30884</v>
       </c>
       <c r="B1395">
-        <v>6250000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
@@ -11918,7 +11914,7 @@
         <v>30619</v>
       </c>
       <c r="B1445">
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
@@ -11966,7 +11962,7 @@
         <v>22817</v>
       </c>
       <c r="B1451">
-        <v>5480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
@@ -12126,7 +12122,7 @@
         <v>30908</v>
       </c>
       <c r="B1471">
-        <v>2235000</v>
+        <v>9680000</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
@@ -12238,7 +12234,7 @@
         <v>29985</v>
       </c>
       <c r="B1485">
-        <v>0</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
@@ -12310,7 +12306,7 @@
         <v>30360</v>
       </c>
       <c r="B1494">
-        <v>9680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
@@ -12566,7 +12562,7 @@
         <v>25491</v>
       </c>
       <c r="B1526">
-        <v>0</v>
+        <v>3392000</v>
       </c>
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
@@ -12574,7 +12570,7 @@
         <v>30182</v>
       </c>
       <c r="B1527">
-        <v>0</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
@@ -13054,7 +13050,7 @@
         <v>29200</v>
       </c>
       <c r="B1587">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.25">
@@ -13078,7 +13074,7 @@
         <v>23248</v>
       </c>
       <c r="B1590">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.25">
@@ -13142,7 +13138,7 @@
         <v>29938</v>
       </c>
       <c r="B1598">
-        <v>10960000</v>
+        <v>5480000</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.25">
@@ -13302,7 +13298,7 @@
         <v>22434</v>
       </c>
       <c r="B1618">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
@@ -13334,7 +13330,7 @@
         <v>30289</v>
       </c>
       <c r="B1622">
-        <v>0</v>
+        <v>4334000</v>
       </c>
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
@@ -13382,7 +13378,7 @@
         <v>28469</v>
       </c>
       <c r="B1628">
-        <v>2274000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
@@ -13398,7 +13394,7 @@
         <v>28280</v>
       </c>
       <c r="B1630">
-        <v>758000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
@@ -13438,7 +13434,7 @@
         <v>27716</v>
       </c>
       <c r="B1635">
-        <v>758000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
@@ -13470,7 +13466,7 @@
         <v>27734</v>
       </c>
       <c r="B1639">
-        <v>14732000</v>
+        <v>10398000</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
@@ -13486,7 +13482,7 @@
         <v>29000</v>
       </c>
       <c r="B1641">
-        <v>11700000</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
@@ -13510,7 +13506,7 @@
         <v>28507</v>
       </c>
       <c r="B1644">
-        <v>0</v>
+        <v>9392000</v>
       </c>
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
@@ -13518,7 +13514,7 @@
         <v>28644</v>
       </c>
       <c r="B1645">
-        <v>1516000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
@@ -13550,7 +13546,7 @@
         <v>21434</v>
       </c>
       <c r="B1649">
-        <v>772000</v>
+        <v>880000</v>
       </c>
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
@@ -13622,7 +13618,7 @@
         <v>27362</v>
       </c>
       <c r="B1658">
-        <v>10150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
@@ -13918,7 +13914,7 @@
         <v>28309</v>
       </c>
       <c r="B1695">
-        <v>2440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.25">
@@ -14030,7 +14026,7 @@
         <v>28394</v>
       </c>
       <c r="B1709">
-        <v>5850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
@@ -14550,7 +14546,7 @@
         <v>28987</v>
       </c>
       <c r="B1774">
-        <v>2440000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.25">
@@ -14558,7 +14554,7 @@
         <v>28988</v>
       </c>
       <c r="B1775">
-        <v>2440000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
@@ -14622,7 +14618,7 @@
         <v>28844</v>
       </c>
       <c r="B1783">
-        <v>0</v>
+        <v>-10150000</v>
       </c>
     </row>
     <row r="1784" spans="1:2" x14ac:dyDescent="0.25">
@@ -14718,7 +14714,7 @@
         <v>28274</v>
       </c>
       <c r="B1795">
-        <v>2440000</v>
+        <v>3290000</v>
       </c>
     </row>
     <row r="1796" spans="1:2" x14ac:dyDescent="0.25">
@@ -14758,7 +14754,7 @@
         <v>28199</v>
       </c>
       <c r="B1800">
-        <v>1120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1801" spans="1:2" x14ac:dyDescent="0.25">
@@ -14798,7 +14794,7 @@
         <v>27855</v>
       </c>
       <c r="B1805">
-        <v>885000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1806" spans="1:2" x14ac:dyDescent="0.25">
@@ -15070,7 +15066,7 @@
         <v>27531</v>
       </c>
       <c r="B1839">
-        <v>12340000</v>
+        <v>2190000</v>
       </c>
     </row>
     <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
@@ -15230,7 +15226,7 @@
         <v>28994</v>
       </c>
       <c r="B1859">
-        <v>11540000</v>
+        <v>5690000</v>
       </c>
     </row>
     <row r="1860" spans="1:2" x14ac:dyDescent="0.25">
@@ -15254,7 +15250,7 @@
         <v>29098</v>
       </c>
       <c r="B1862">
-        <v>11385000</v>
+        <v>1235000</v>
       </c>
     </row>
     <row r="1863" spans="1:2" x14ac:dyDescent="0.25">
@@ -15286,7 +15282,7 @@
         <v>27354</v>
       </c>
       <c r="B1866">
-        <v>20300000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="1867" spans="1:2" x14ac:dyDescent="0.25">
@@ -15494,7 +15490,7 @@
         <v>28974</v>
       </c>
       <c r="B1892">
-        <v>12590000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
@@ -15726,7 +15722,7 @@
         <v>28588</v>
       </c>
       <c r="B1921">
-        <v>3325000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:2" x14ac:dyDescent="0.25">
@@ -15854,7 +15850,7 @@
         <v>28383</v>
       </c>
       <c r="B1937">
-        <v>920000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
@@ -15894,7 +15890,7 @@
         <v>21478</v>
       </c>
       <c r="B1942">
-        <v>5092000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1943" spans="1:2" x14ac:dyDescent="0.25">
@@ -15934,7 +15930,7 @@
         <v>28201</v>
       </c>
       <c r="B1947">
-        <v>2060000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1948" spans="1:2" x14ac:dyDescent="0.25">
@@ -15950,7 +15946,7 @@
         <v>21455</v>
       </c>
       <c r="B1949">
-        <v>3032000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.25">
@@ -15966,7 +15962,7 @@
         <v>27342</v>
       </c>
       <c r="B1951">
-        <v>10150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
@@ -15982,7 +15978,7 @@
         <v>21305</v>
       </c>
       <c r="B1953">
-        <v>5866000</v>
+        <v>774000</v>
       </c>
     </row>
     <row r="1954" spans="1:2" x14ac:dyDescent="0.25">
@@ -16030,7 +16026,7 @@
         <v>22147</v>
       </c>
       <c r="B1959">
-        <v>1516000</v>
+        <v>2274000</v>
       </c>
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.25">
@@ -16038,7 +16034,7 @@
         <v>28387</v>
       </c>
       <c r="B1960">
-        <v>758000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1961" spans="1:2" x14ac:dyDescent="0.25">
@@ -16070,7 +16066,7 @@
         <v>27615</v>
       </c>
       <c r="B1964">
-        <v>10150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1965" spans="1:2" x14ac:dyDescent="0.25">
@@ -16078,7 +16074,7 @@
         <v>28249</v>
       </c>
       <c r="B1965">
-        <v>10150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
@@ -16086,7 +16082,7 @@
         <v>28085</v>
       </c>
       <c r="B1966">
-        <v>14106000</v>
+        <v>4714000</v>
       </c>
     </row>
     <row r="1967" spans="1:2" x14ac:dyDescent="0.25">
@@ -16102,7 +16098,7 @@
         <v>27908</v>
       </c>
       <c r="B1968">
-        <v>5092000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1969" spans="1:2" x14ac:dyDescent="0.25">
@@ -16110,7 +16106,7 @@
         <v>28198</v>
       </c>
       <c r="B1969">
-        <v>2274000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1970" spans="1:2" x14ac:dyDescent="0.25">
@@ -16118,7 +16114,7 @@
         <v>28944</v>
       </c>
       <c r="B1970">
-        <v>5850000</v>
+        <v>5092000</v>
       </c>
     </row>
     <row r="1971" spans="1:2" x14ac:dyDescent="0.25">
@@ -16150,7 +16146,7 @@
         <v>27966</v>
       </c>
       <c r="B1974">
-        <v>5850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
@@ -16174,7 +16170,7 @@
         <v>27358</v>
       </c>
       <c r="B1977">
-        <v>8634000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1978" spans="1:2" x14ac:dyDescent="0.25">
@@ -16198,7 +16194,7 @@
         <v>27378</v>
       </c>
       <c r="B1980">
-        <v>758000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1981" spans="1:2" x14ac:dyDescent="0.25">
@@ -16222,7 +16218,7 @@
         <v>27563</v>
       </c>
       <c r="B1983">
-        <v>758000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1984" spans="1:2" x14ac:dyDescent="0.25">
@@ -16238,7 +16234,7 @@
         <v>22060</v>
       </c>
       <c r="B1985">
-        <v>8092000</v>
+        <v>3758000</v>
       </c>
     </row>
     <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
@@ -16398,7 +16394,7 @@
         <v>21801</v>
       </c>
       <c r="B2005">
-        <v>0</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="2006" spans="1:2" x14ac:dyDescent="0.25">
@@ -16462,7 +16458,7 @@
         <v>28516</v>
       </c>
       <c r="B2013">
-        <v>11700000</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
@@ -16622,7 +16618,7 @@
         <v>28941</v>
       </c>
       <c r="B2033">
-        <v>12490000</v>
+        <v>6640000</v>
       </c>
     </row>
     <row r="2034" spans="1:2" x14ac:dyDescent="0.25">
@@ -16686,7 +16682,7 @@
         <v>21280</v>
       </c>
       <c r="B2041">
-        <v>5850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2042" spans="1:2" x14ac:dyDescent="0.25">
@@ -16782,7 +16778,7 @@
         <v>21495</v>
       </c>
       <c r="B2053">
-        <v>0</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="2054" spans="1:2" x14ac:dyDescent="0.25">
@@ -17158,7 +17154,7 @@
         <v>27346</v>
       </c>
       <c r="B2100">
-        <v>16850000</v>
+        <v>6700000</v>
       </c>
     </row>
     <row r="2101" spans="1:2" x14ac:dyDescent="0.25">
@@ -17486,7 +17482,7 @@
         <v>21494</v>
       </c>
       <c r="B2141">
-        <v>20300000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="2142" spans="1:2" x14ac:dyDescent="0.25">
@@ -17606,7 +17602,7 @@
         <v>28310</v>
       </c>
       <c r="B2156">
-        <v>0</v>
+        <v>9392000</v>
       </c>
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.25">
@@ -17830,7 +17826,7 @@
         <v>27720</v>
       </c>
       <c r="B2184">
-        <v>0</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.25">
@@ -17934,7 +17930,7 @@
         <v>21237</v>
       </c>
       <c r="B2197">
-        <v>790000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.25">
@@ -17942,7 +17938,7 @@
         <v>27774</v>
       </c>
       <c r="B2198">
-        <v>350000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2199" spans="1:2" x14ac:dyDescent="0.25">
@@ -17966,7 +17962,7 @@
         <v>27474</v>
       </c>
       <c r="B2201">
-        <v>20300000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.25">
@@ -18198,7 +18194,7 @@
         <v>28899</v>
       </c>
       <c r="B2230">
-        <v>8634000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2231" spans="1:2" x14ac:dyDescent="0.25">
@@ -18238,7 +18234,7 @@
         <v>28030</v>
       </c>
       <c r="B2235">
-        <v>11700000</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.25">
@@ -18334,7 +18330,7 @@
         <v>22314</v>
       </c>
       <c r="B2247">
-        <v>0</v>
+        <v>495000</v>
       </c>
     </row>
     <row r="2248" spans="1:2" x14ac:dyDescent="0.25">
@@ -18414,7 +18410,7 @@
         <v>21303</v>
       </c>
       <c r="B2257">
-        <v>5850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2258" spans="1:2" x14ac:dyDescent="0.25">
@@ -18494,7 +18490,7 @@
         <v>21616</v>
       </c>
       <c r="B2267">
-        <v>6064000</v>
+        <v>3246000</v>
       </c>
     </row>
     <row r="2268" spans="1:2" x14ac:dyDescent="0.25">
@@ -18574,7 +18570,7 @@
         <v>27403</v>
       </c>
       <c r="B2277">
-        <v>10150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2278" spans="1:2" x14ac:dyDescent="0.25">
@@ -18670,7 +18666,7 @@
         <v>21480</v>
       </c>
       <c r="B2289">
-        <v>10150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2290" spans="1:2" x14ac:dyDescent="0.25">
@@ -18830,7 +18826,7 @@
         <v>27751</v>
       </c>
       <c r="B2309">
-        <v>790000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.25">
@@ -18854,7 +18850,7 @@
         <v>28881</v>
       </c>
       <c r="B2312">
-        <v>11700000</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
@@ -18862,7 +18858,7 @@
         <v>28898</v>
       </c>
       <c r="B2313">
-        <v>5850000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.25">
@@ -18870,7 +18866,7 @@
         <v>22388</v>
       </c>
       <c r="B2314">
-        <v>20300000</v>
+        <v>10150000</v>
       </c>
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.25">
@@ -19118,7 +19114,7 @@
         <v>21291</v>
       </c>
       <c r="B2345">
-        <v>11700000</v>
+        <v>5850000</v>
       </c>
     </row>
     <row r="2346" spans="1:2" x14ac:dyDescent="0.25">
@@ -19158,7 +19154,7 @@
         <v>29340</v>
       </c>
       <c r="B2350">
-        <v>22540000</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2351" spans="1:2" x14ac:dyDescent="0.25">
@@ -19422,7 +19418,7 @@
         <v>25870</v>
       </c>
       <c r="B2383">
-        <v>930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2384" spans="1:2" x14ac:dyDescent="0.25">
@@ -19478,7 +19474,7 @@
         <v>27140</v>
       </c>
       <c r="B2390">
-        <v>0</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2391" spans="1:2" x14ac:dyDescent="0.25">
@@ -19598,7 +19594,7 @@
         <v>29194</v>
       </c>
       <c r="B2405">
-        <v>1860000</v>
+        <v>2790000</v>
       </c>
     </row>
     <row r="2406" spans="1:2" x14ac:dyDescent="0.25">
@@ -19694,7 +19690,7 @@
         <v>20812</v>
       </c>
       <c r="B2417">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2418" spans="1:2" x14ac:dyDescent="0.25">
@@ -19750,7 +19746,7 @@
         <v>25555</v>
       </c>
       <c r="B2424">
-        <v>930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2425" spans="1:2" x14ac:dyDescent="0.25">
@@ -19822,7 +19818,7 @@
         <v>26008</v>
       </c>
       <c r="B2433">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2434" spans="1:2" x14ac:dyDescent="0.25">
@@ -19894,7 +19890,7 @@
         <v>27246</v>
       </c>
       <c r="B2442">
-        <v>25080000</v>
+        <v>13810000</v>
       </c>
     </row>
     <row r="2443" spans="1:2" x14ac:dyDescent="0.25">
@@ -20038,7 +20034,7 @@
         <v>26190</v>
       </c>
       <c r="B2460">
-        <v>22540000</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2461" spans="1:2" x14ac:dyDescent="0.25">
@@ -20190,7 +20186,7 @@
         <v>26137</v>
       </c>
       <c r="B2479">
-        <v>0</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="2480" spans="1:2" x14ac:dyDescent="0.25">
@@ -20230,7 +20226,7 @@
         <v>26862</v>
       </c>
       <c r="B2484">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485" spans="1:2" x14ac:dyDescent="0.25">
@@ -20294,7 +20290,7 @@
         <v>30453</v>
       </c>
       <c r="B2492">
-        <v>2540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2493" spans="1:2" x14ac:dyDescent="0.25">
@@ -20422,7 +20418,7 @@
         <v>26228</v>
       </c>
       <c r="B2508">
-        <v>0</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="2509" spans="1:2" x14ac:dyDescent="0.25">
@@ -20534,7 +20530,7 @@
         <v>26588</v>
       </c>
       <c r="B2522">
-        <v>0</v>
+        <v>6770000</v>
       </c>
     </row>
     <row r="2523" spans="1:2" x14ac:dyDescent="0.25">
@@ -20710,7 +20706,7 @@
         <v>27086</v>
       </c>
       <c r="B2544">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2545" spans="1:2" x14ac:dyDescent="0.25">
@@ -20734,7 +20730,7 @@
         <v>29225</v>
       </c>
       <c r="B2547">
-        <v>3720000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2548" spans="1:2" x14ac:dyDescent="0.25">
@@ -20830,7 +20826,7 @@
         <v>29205</v>
       </c>
       <c r="B2559">
-        <v>0</v>
+        <v>345000</v>
       </c>
     </row>
     <row r="2560" spans="1:2" x14ac:dyDescent="0.25">
@@ -20870,7 +20866,7 @@
         <v>26548</v>
       </c>
       <c r="B2564">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2565" spans="1:2" x14ac:dyDescent="0.25">
@@ -20878,7 +20874,7 @@
         <v>26284</v>
       </c>
       <c r="B2565">
-        <v>0</v>
+        <v>6770000</v>
       </c>
     </row>
     <row r="2566" spans="1:2" x14ac:dyDescent="0.25">
@@ -20950,7 +20946,7 @@
         <v>29104</v>
       </c>
       <c r="B2574">
-        <v>0</v>
+        <v>10340000</v>
       </c>
     </row>
     <row r="2575" spans="1:2" x14ac:dyDescent="0.25">
@@ -20998,7 +20994,7 @@
         <v>29207</v>
       </c>
       <c r="B2580">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2581" spans="1:2" x14ac:dyDescent="0.25">
@@ -21046,7 +21042,7 @@
         <v>26406</v>
       </c>
       <c r="B2586">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.25">
@@ -21070,7 +21066,7 @@
         <v>26756</v>
       </c>
       <c r="B2589">
-        <v>1860000</v>
+        <v>2790000</v>
       </c>
     </row>
     <row r="2590" spans="1:2" x14ac:dyDescent="0.25">
@@ -21123,7 +21119,7 @@
     </row>
     <row r="2596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2596">
-        <v>29381</v>
+        <v>29675</v>
       </c>
       <c r="B2596">
         <v>0</v>
@@ -21131,7 +21127,7 @@
     </row>
     <row r="2597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2597">
-        <v>29675</v>
+        <v>20777</v>
       </c>
       <c r="B2597">
         <v>0</v>
@@ -21139,23 +21135,23 @@
     </row>
     <row r="2598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2598">
-        <v>20777</v>
+        <v>25956</v>
       </c>
       <c r="B2598">
-        <v>4650000</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2599">
-        <v>25956</v>
+        <v>25758</v>
       </c>
       <c r="B2599">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2600">
-        <v>25758</v>
+        <v>26166</v>
       </c>
       <c r="B2600">
         <v>0</v>
@@ -21163,7 +21159,7 @@
     </row>
     <row r="2601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2601">
-        <v>26166</v>
+        <v>25606</v>
       </c>
       <c r="B2601">
         <v>0</v>
@@ -21171,7 +21167,7 @@
     </row>
     <row r="2602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2602">
-        <v>25606</v>
+        <v>26927</v>
       </c>
       <c r="B2602">
         <v>0</v>
@@ -21179,7 +21175,7 @@
     </row>
     <row r="2603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2603">
-        <v>26927</v>
+        <v>29118</v>
       </c>
       <c r="B2603">
         <v>0</v>
@@ -21187,7 +21183,7 @@
     </row>
     <row r="2604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2604">
-        <v>29118</v>
+        <v>26297</v>
       </c>
       <c r="B2604">
         <v>0</v>
@@ -21195,7 +21191,7 @@
     </row>
     <row r="2605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2605">
-        <v>26297</v>
+        <v>29410</v>
       </c>
       <c r="B2605">
         <v>0</v>
@@ -21203,7 +21199,7 @@
     </row>
     <row r="2606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2606">
-        <v>29410</v>
+        <v>25889</v>
       </c>
       <c r="B2606">
         <v>0</v>
@@ -21211,23 +21207,23 @@
     </row>
     <row r="2607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2607">
-        <v>25889</v>
+        <v>26646</v>
       </c>
       <c r="B2607">
-        <v>0</v>
+        <v>2790000</v>
       </c>
     </row>
     <row r="2608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2608">
-        <v>26646</v>
+        <v>25616</v>
       </c>
       <c r="B2608">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2609">
-        <v>25616</v>
+        <v>25933</v>
       </c>
       <c r="B2609">
         <v>0</v>
@@ -21235,15 +21231,15 @@
     </row>
     <row r="2610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2610">
-        <v>25933</v>
+        <v>26026</v>
       </c>
       <c r="B2610">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2611">
-        <v>26026</v>
+        <v>29406</v>
       </c>
       <c r="B2611">
         <v>0</v>
@@ -21251,7 +21247,7 @@
     </row>
     <row r="2612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2612">
-        <v>29406</v>
+        <v>29355</v>
       </c>
       <c r="B2612">
         <v>0</v>
@@ -21259,7 +21255,7 @@
     </row>
     <row r="2613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2613">
-        <v>29355</v>
+        <v>29390</v>
       </c>
       <c r="B2613">
         <v>0</v>
@@ -21267,7 +21263,7 @@
     </row>
     <row r="2614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2614">
-        <v>29390</v>
+        <v>28632</v>
       </c>
       <c r="B2614">
         <v>0</v>
@@ -21275,7 +21271,7 @@
     </row>
     <row r="2615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2615">
-        <v>28632</v>
+        <v>26483</v>
       </c>
       <c r="B2615">
         <v>0</v>
@@ -21283,7 +21279,7 @@
     </row>
     <row r="2616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2616">
-        <v>26483</v>
+        <v>26447</v>
       </c>
       <c r="B2616">
         <v>0</v>
@@ -21291,7 +21287,7 @@
     </row>
     <row r="2617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2617">
-        <v>26447</v>
+        <v>29396</v>
       </c>
       <c r="B2617">
         <v>0</v>
@@ -21299,31 +21295,31 @@
     </row>
     <row r="2618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2618">
-        <v>29396</v>
+        <v>29347</v>
       </c>
       <c r="B2618">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2619">
-        <v>29347</v>
+        <v>29156</v>
       </c>
       <c r="B2619">
-        <v>0</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2620">
-        <v>29156</v>
+        <v>29197</v>
       </c>
       <c r="B2620">
-        <v>22540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2621">
-        <v>29197</v>
+        <v>26217</v>
       </c>
       <c r="B2621">
         <v>0</v>
@@ -21331,7 +21327,7 @@
     </row>
     <row r="2622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2622">
-        <v>26217</v>
+        <v>29172</v>
       </c>
       <c r="B2622">
         <v>0</v>
@@ -21339,7 +21335,7 @@
     </row>
     <row r="2623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2623">
-        <v>29172</v>
+        <v>29208</v>
       </c>
       <c r="B2623">
         <v>0</v>
@@ -21347,7 +21343,7 @@
     </row>
     <row r="2624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2624">
-        <v>29208</v>
+        <v>25859</v>
       </c>
       <c r="B2624">
         <v>0</v>
@@ -21355,23 +21351,23 @@
     </row>
     <row r="2625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2625">
-        <v>25859</v>
+        <v>26506</v>
       </c>
       <c r="B2625">
-        <v>0</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2626">
-        <v>26506</v>
+        <v>29116</v>
       </c>
       <c r="B2626">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2627">
-        <v>29116</v>
+        <v>29232</v>
       </c>
       <c r="B2627">
         <v>0</v>
@@ -21379,7 +21375,7 @@
     </row>
     <row r="2628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2628">
-        <v>29232</v>
+        <v>27301</v>
       </c>
       <c r="B2628">
         <v>0</v>
@@ -21387,7 +21383,7 @@
     </row>
     <row r="2629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2629">
-        <v>27301</v>
+        <v>20957</v>
       </c>
       <c r="B2629">
         <v>0</v>
@@ -21395,31 +21391,31 @@
     </row>
     <row r="2630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2630">
-        <v>20957</v>
+        <v>22323</v>
       </c>
       <c r="B2630">
-        <v>0</v>
+        <v>7580000</v>
       </c>
     </row>
     <row r="2631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2631">
-        <v>22323</v>
+        <v>27629</v>
       </c>
       <c r="B2631">
-        <v>14350000</v>
+        <v>3720000</v>
       </c>
     </row>
     <row r="2632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2632">
-        <v>27629</v>
+        <v>29219</v>
       </c>
       <c r="B2632">
-        <v>3720000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2633">
-        <v>29219</v>
+        <v>26114</v>
       </c>
       <c r="B2633">
         <v>0</v>
@@ -21427,7 +21423,7 @@
     </row>
     <row r="2634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2634">
-        <v>26114</v>
+        <v>29265</v>
       </c>
       <c r="B2634">
         <v>0</v>
@@ -21435,7 +21431,7 @@
     </row>
     <row r="2635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2635">
-        <v>29265</v>
+        <v>29378</v>
       </c>
       <c r="B2635">
         <v>0</v>
@@ -21443,15 +21439,15 @@
     </row>
     <row r="2636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2636">
-        <v>29378</v>
+        <v>26113</v>
       </c>
       <c r="B2636">
-        <v>0</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="2637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2637">
-        <v>26113</v>
+        <v>25652</v>
       </c>
       <c r="B2637">
         <v>0</v>
@@ -21459,23 +21455,23 @@
     </row>
     <row r="2638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2638">
-        <v>25652</v>
+        <v>26645</v>
       </c>
       <c r="B2638">
-        <v>0</v>
+        <v>2540000</v>
       </c>
     </row>
     <row r="2639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2639">
-        <v>26645</v>
+        <v>25588</v>
       </c>
       <c r="B2639">
-        <v>2540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2640">
-        <v>25588</v>
+        <v>26742</v>
       </c>
       <c r="B2640">
         <v>0</v>
@@ -21483,7 +21479,7 @@
     </row>
     <row r="2641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2641">
-        <v>26742</v>
+        <v>29159</v>
       </c>
       <c r="B2641">
         <v>0</v>
@@ -21491,7 +21487,7 @@
     </row>
     <row r="2642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2642">
-        <v>29159</v>
+        <v>30525</v>
       </c>
       <c r="B2642">
         <v>0</v>
@@ -21499,7 +21495,7 @@
     </row>
     <row r="2643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2643">
-        <v>30525</v>
+        <v>29352</v>
       </c>
       <c r="B2643">
         <v>0</v>
@@ -21507,7 +21503,7 @@
     </row>
     <row r="2644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2644">
-        <v>29352</v>
+        <v>25871</v>
       </c>
       <c r="B2644">
         <v>0</v>
@@ -21515,7 +21511,7 @@
     </row>
     <row r="2645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2645">
-        <v>25871</v>
+        <v>29417</v>
       </c>
       <c r="B2645">
         <v>0</v>
@@ -21523,7 +21519,7 @@
     </row>
     <row r="2646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2646">
-        <v>29417</v>
+        <v>25560</v>
       </c>
       <c r="B2646">
         <v>0</v>
@@ -21531,7 +21527,7 @@
     </row>
     <row r="2647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2647">
-        <v>25560</v>
+        <v>26147</v>
       </c>
       <c r="B2647">
         <v>0</v>
@@ -21539,55 +21535,55 @@
     </row>
     <row r="2648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2648">
-        <v>26147</v>
+        <v>29913</v>
       </c>
       <c r="B2648">
-        <v>0</v>
+        <v>4133000</v>
       </c>
     </row>
     <row r="2649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2649">
-        <v>29913</v>
+        <v>29284</v>
       </c>
       <c r="B2649">
-        <v>6403000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2650">
-        <v>29284</v>
+        <v>25801</v>
       </c>
       <c r="B2650">
-        <v>0</v>
+        <v>2790000</v>
       </c>
     </row>
     <row r="2651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2651">
-        <v>25801</v>
+        <v>27664</v>
       </c>
       <c r="B2651">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2652">
-        <v>27664</v>
+        <v>20747</v>
       </c>
       <c r="B2652">
-        <v>0</v>
+        <v>11840000</v>
       </c>
     </row>
     <row r="2653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2653">
-        <v>20747</v>
+        <v>29674</v>
       </c>
       <c r="B2653">
-        <v>9980000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2654">
-        <v>29674</v>
+        <v>29240</v>
       </c>
       <c r="B2654">
         <v>0</v>
@@ -21595,7 +21591,7 @@
     </row>
     <row r="2655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2655">
-        <v>29240</v>
+        <v>30940</v>
       </c>
       <c r="B2655">
         <v>0</v>
@@ -21603,7 +21599,7 @@
     </row>
     <row r="2656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2656">
-        <v>30940</v>
+        <v>29213</v>
       </c>
       <c r="B2656">
         <v>0</v>
@@ -21611,7 +21607,7 @@
     </row>
     <row r="2657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2657">
-        <v>29213</v>
+        <v>25547</v>
       </c>
       <c r="B2657">
         <v>0</v>
@@ -21619,7 +21615,7 @@
     </row>
     <row r="2658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2658">
-        <v>25547</v>
+        <v>29241</v>
       </c>
       <c r="B2658">
         <v>0</v>
@@ -21627,7 +21623,7 @@
     </row>
     <row r="2659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2659">
-        <v>29241</v>
+        <v>27266</v>
       </c>
       <c r="B2659">
         <v>0</v>
@@ -21635,7 +21631,7 @@
     </row>
     <row r="2660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2660">
-        <v>27266</v>
+        <v>26467</v>
       </c>
       <c r="B2660">
         <v>0</v>
@@ -21643,7 +21639,7 @@
     </row>
     <row r="2661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2661">
-        <v>26467</v>
+        <v>20563</v>
       </c>
       <c r="B2661">
         <v>0</v>
@@ -21651,7 +21647,7 @@
     </row>
     <row r="2662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2662">
-        <v>20563</v>
+        <v>26532</v>
       </c>
       <c r="B2662">
         <v>0</v>
@@ -21659,7 +21655,7 @@
     </row>
     <row r="2663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2663">
-        <v>26532</v>
+        <v>26751</v>
       </c>
       <c r="B2663">
         <v>0</v>
@@ -21667,7 +21663,7 @@
     </row>
     <row r="2664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2664">
-        <v>26751</v>
+        <v>26127</v>
       </c>
       <c r="B2664">
         <v>0</v>
@@ -21675,7 +21671,7 @@
     </row>
     <row r="2665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2665">
-        <v>26127</v>
+        <v>29422</v>
       </c>
       <c r="B2665">
         <v>0</v>
@@ -21683,7 +21679,7 @@
     </row>
     <row r="2666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2666">
-        <v>29422</v>
+        <v>28830</v>
       </c>
       <c r="B2666">
         <v>0</v>
@@ -21691,7 +21687,7 @@
     </row>
     <row r="2667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2667">
-        <v>28830</v>
+        <v>29170</v>
       </c>
       <c r="B2667">
         <v>0</v>
@@ -21699,7 +21695,7 @@
     </row>
     <row r="2668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2668">
-        <v>29170</v>
+        <v>26020</v>
       </c>
       <c r="B2668">
         <v>0</v>
@@ -21707,7 +21703,7 @@
     </row>
     <row r="2669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2669">
-        <v>26020</v>
+        <v>28119</v>
       </c>
       <c r="B2669">
         <v>0</v>
@@ -21715,7 +21711,7 @@
     </row>
     <row r="2670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2670">
-        <v>28119</v>
+        <v>29383</v>
       </c>
       <c r="B2670">
         <v>0</v>
@@ -21723,7 +21719,7 @@
     </row>
     <row r="2671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2671">
-        <v>29383</v>
+        <v>30770</v>
       </c>
       <c r="B2671">
         <v>0</v>
@@ -21731,7 +21727,7 @@
     </row>
     <row r="2672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2672">
-        <v>30770</v>
+        <v>26519</v>
       </c>
       <c r="B2672">
         <v>0</v>
@@ -21739,15 +21735,15 @@
     </row>
     <row r="2673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2673">
-        <v>26519</v>
+        <v>20829</v>
       </c>
       <c r="B2673">
-        <v>0</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2674">
-        <v>20829</v>
+        <v>26367</v>
       </c>
       <c r="B2674">
         <v>0</v>
@@ -21755,7 +21751,7 @@
     </row>
     <row r="2675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2675">
-        <v>26367</v>
+        <v>27281</v>
       </c>
       <c r="B2675">
         <v>0</v>
@@ -21763,7 +21759,7 @@
     </row>
     <row r="2676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2676">
-        <v>27281</v>
+        <v>26499</v>
       </c>
       <c r="B2676">
         <v>0</v>
@@ -21771,7 +21767,7 @@
     </row>
     <row r="2677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2677">
-        <v>26499</v>
+        <v>25627</v>
       </c>
       <c r="B2677">
         <v>0</v>
@@ -21779,7 +21775,7 @@
     </row>
     <row r="2678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2678">
-        <v>25627</v>
+        <v>29374</v>
       </c>
       <c r="B2678">
         <v>0</v>
@@ -21787,7 +21783,7 @@
     </row>
     <row r="2679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2679">
-        <v>29374</v>
+        <v>26343</v>
       </c>
       <c r="B2679">
         <v>0</v>
@@ -21795,7 +21791,7 @@
     </row>
     <row r="2680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2680">
-        <v>26343</v>
+        <v>26438</v>
       </c>
       <c r="B2680">
         <v>0</v>
@@ -21803,7 +21799,7 @@
     </row>
     <row r="2681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2681">
-        <v>26438</v>
+        <v>27150</v>
       </c>
       <c r="B2681">
         <v>0</v>
@@ -21811,7 +21807,7 @@
     </row>
     <row r="2682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2682">
-        <v>27150</v>
+        <v>26713</v>
       </c>
       <c r="B2682">
         <v>0</v>
@@ -21819,7 +21815,7 @@
     </row>
     <row r="2683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2683">
-        <v>26713</v>
+        <v>30937</v>
       </c>
       <c r="B2683">
         <v>0</v>
@@ -21827,7 +21823,7 @@
     </row>
     <row r="2684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2684">
-        <v>30937</v>
+        <v>26123</v>
       </c>
       <c r="B2684">
         <v>0</v>
@@ -21835,7 +21831,7 @@
     </row>
     <row r="2685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2685">
-        <v>26123</v>
+        <v>26375</v>
       </c>
       <c r="B2685">
         <v>0</v>
@@ -21843,7 +21839,7 @@
     </row>
     <row r="2686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2686">
-        <v>26375</v>
+        <v>30158</v>
       </c>
       <c r="B2686">
         <v>0</v>
@@ -21851,7 +21847,7 @@
     </row>
     <row r="2687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2687">
-        <v>30158</v>
+        <v>26437</v>
       </c>
       <c r="B2687">
         <v>0</v>
@@ -21859,7 +21855,7 @@
     </row>
     <row r="2688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2688">
-        <v>26437</v>
+        <v>22306</v>
       </c>
       <c r="B2688">
         <v>0</v>
@@ -21867,7 +21863,7 @@
     </row>
     <row r="2689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2689">
-        <v>22306</v>
+        <v>29278</v>
       </c>
       <c r="B2689">
         <v>0</v>
@@ -21875,7 +21871,7 @@
     </row>
     <row r="2690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2690">
-        <v>29278</v>
+        <v>27253</v>
       </c>
       <c r="B2690">
         <v>0</v>
@@ -21883,15 +21879,15 @@
     </row>
     <row r="2691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2691">
-        <v>27253</v>
+        <v>25563</v>
       </c>
       <c r="B2691">
-        <v>0</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2692">
-        <v>25563</v>
+        <v>29246</v>
       </c>
       <c r="B2692">
         <v>0</v>
@@ -21899,7 +21895,7 @@
     </row>
     <row r="2693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2693">
-        <v>29246</v>
+        <v>29228</v>
       </c>
       <c r="B2693">
         <v>0</v>
@@ -21907,7 +21903,7 @@
     </row>
     <row r="2694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2694">
-        <v>29228</v>
+        <v>26524</v>
       </c>
       <c r="B2694">
         <v>0</v>
@@ -21915,7 +21911,7 @@
     </row>
     <row r="2695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2695">
-        <v>26524</v>
+        <v>25554</v>
       </c>
       <c r="B2695">
         <v>0</v>
@@ -21923,7 +21919,7 @@
     </row>
     <row r="2696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2696">
-        <v>25554</v>
+        <v>29295</v>
       </c>
       <c r="B2696">
         <v>0</v>
@@ -21931,7 +21927,7 @@
     </row>
     <row r="2697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2697">
-        <v>29295</v>
+        <v>25649</v>
       </c>
       <c r="B2697">
         <v>0</v>
@@ -21939,7 +21935,7 @@
     </row>
     <row r="2698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2698">
-        <v>25649</v>
+        <v>26466</v>
       </c>
       <c r="B2698">
         <v>0</v>
@@ -21947,7 +21943,7 @@
     </row>
     <row r="2699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2699">
-        <v>26466</v>
+        <v>26721</v>
       </c>
       <c r="B2699">
         <v>0</v>
@@ -21955,7 +21951,7 @@
     </row>
     <row r="2700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2700">
-        <v>26721</v>
+        <v>25684</v>
       </c>
       <c r="B2700">
         <v>0</v>
@@ -21963,7 +21959,7 @@
     </row>
     <row r="2701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2701">
-        <v>25684</v>
+        <v>26338</v>
       </c>
       <c r="B2701">
         <v>0</v>
@@ -21971,7 +21967,7 @@
     </row>
     <row r="2702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2702">
-        <v>26338</v>
+        <v>25545</v>
       </c>
       <c r="B2702">
         <v>0</v>
@@ -21979,7 +21975,7 @@
     </row>
     <row r="2703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2703">
-        <v>25545</v>
+        <v>26723</v>
       </c>
       <c r="B2703">
         <v>0</v>
@@ -21987,7 +21983,7 @@
     </row>
     <row r="2704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2704">
-        <v>26723</v>
+        <v>29212</v>
       </c>
       <c r="B2704">
         <v>0</v>
@@ -21995,7 +21991,7 @@
     </row>
     <row r="2705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2705">
-        <v>29212</v>
+        <v>26235</v>
       </c>
       <c r="B2705">
         <v>0</v>
@@ -22003,7 +21999,7 @@
     </row>
     <row r="2706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2706">
-        <v>26235</v>
+        <v>27286</v>
       </c>
       <c r="B2706">
         <v>0</v>
@@ -22011,7 +22007,7 @@
     </row>
     <row r="2707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2707">
-        <v>27286</v>
+        <v>29389</v>
       </c>
       <c r="B2707">
         <v>0</v>
@@ -22019,23 +22015,23 @@
     </row>
     <row r="2708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2708">
-        <v>29389</v>
+        <v>29277</v>
       </c>
       <c r="B2708">
-        <v>0</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2709">
-        <v>29277</v>
+        <v>29370</v>
       </c>
       <c r="B2709">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2710">
-        <v>29370</v>
+        <v>27161</v>
       </c>
       <c r="B2710">
         <v>0</v>
@@ -22043,7 +22039,7 @@
     </row>
     <row r="2711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2711">
-        <v>27161</v>
+        <v>27113</v>
       </c>
       <c r="B2711">
         <v>0</v>
@@ -22051,7 +22047,7 @@
     </row>
     <row r="2712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2712">
-        <v>27113</v>
+        <v>26210</v>
       </c>
       <c r="B2712">
         <v>0</v>
@@ -22059,31 +22055,31 @@
     </row>
     <row r="2713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2713">
-        <v>26210</v>
+        <v>29106</v>
       </c>
       <c r="B2713">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="2714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2714">
-        <v>29106</v>
+        <v>25549</v>
       </c>
       <c r="B2714">
-        <v>600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2715">
-        <v>25549</v>
+        <v>26505</v>
       </c>
       <c r="B2715">
-        <v>865000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2716">
-        <v>26505</v>
+        <v>26592</v>
       </c>
       <c r="B2716">
         <v>0</v>
@@ -22091,7 +22087,7 @@
     </row>
     <row r="2717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2717">
-        <v>26592</v>
+        <v>25571</v>
       </c>
       <c r="B2717">
         <v>0</v>
@@ -22099,7 +22095,7 @@
     </row>
     <row r="2718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2718">
-        <v>25571</v>
+        <v>26513</v>
       </c>
       <c r="B2718">
         <v>0</v>
@@ -22107,7 +22103,7 @@
     </row>
     <row r="2719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2719">
-        <v>26513</v>
+        <v>30330</v>
       </c>
       <c r="B2719">
         <v>0</v>
@@ -22115,7 +22111,7 @@
     </row>
     <row r="2720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2720">
-        <v>30330</v>
+        <v>20419</v>
       </c>
       <c r="B2720">
         <v>0</v>
@@ -22123,7 +22119,7 @@
     </row>
     <row r="2721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2721">
-        <v>20419</v>
+        <v>25959</v>
       </c>
       <c r="B2721">
         <v>0</v>
@@ -22131,7 +22127,7 @@
     </row>
     <row r="2722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2722">
-        <v>25959</v>
+        <v>26801</v>
       </c>
       <c r="B2722">
         <v>0</v>
@@ -22139,7 +22135,7 @@
     </row>
     <row r="2723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2723">
-        <v>26801</v>
+        <v>26478</v>
       </c>
       <c r="B2723">
         <v>0</v>
@@ -22147,7 +22143,7 @@
     </row>
     <row r="2724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2724">
-        <v>26478</v>
+        <v>27100</v>
       </c>
       <c r="B2724">
         <v>0</v>
@@ -22155,7 +22151,7 @@
     </row>
     <row r="2725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2725">
-        <v>27100</v>
+        <v>29204</v>
       </c>
       <c r="B2725">
         <v>0</v>
@@ -22163,7 +22159,7 @@
     </row>
     <row r="2726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2726">
-        <v>29204</v>
+        <v>26227</v>
       </c>
       <c r="B2726">
         <v>0</v>
@@ -22171,7 +22167,7 @@
     </row>
     <row r="2727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2727">
-        <v>26227</v>
+        <v>29437</v>
       </c>
       <c r="B2727">
         <v>0</v>
@@ -22179,7 +22175,7 @@
     </row>
     <row r="2728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2728">
-        <v>29437</v>
+        <v>30789</v>
       </c>
       <c r="B2728">
         <v>0</v>
@@ -22187,7 +22183,7 @@
     </row>
     <row r="2729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2729">
-        <v>30789</v>
+        <v>28553</v>
       </c>
       <c r="B2729">
         <v>0</v>
@@ -22195,7 +22191,7 @@
     </row>
     <row r="2730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2730">
-        <v>28553</v>
+        <v>26354</v>
       </c>
       <c r="B2730">
         <v>0</v>
@@ -22203,7 +22199,7 @@
     </row>
     <row r="2731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2731">
-        <v>26354</v>
+        <v>30676</v>
       </c>
       <c r="B2731">
         <v>0</v>
@@ -22211,7 +22207,7 @@
     </row>
     <row r="2732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2732">
-        <v>30676</v>
+        <v>25960</v>
       </c>
       <c r="B2732">
         <v>0</v>
@@ -22219,7 +22215,7 @@
     </row>
     <row r="2733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2733">
-        <v>25960</v>
+        <v>27208</v>
       </c>
       <c r="B2733">
         <v>0</v>
@@ -22227,7 +22223,7 @@
     </row>
     <row r="2734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2734">
-        <v>27208</v>
+        <v>26165</v>
       </c>
       <c r="B2734">
         <v>0</v>
@@ -22235,7 +22231,7 @@
     </row>
     <row r="2735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2735">
-        <v>26165</v>
+        <v>29224</v>
       </c>
       <c r="B2735">
         <v>0</v>
@@ -22243,7 +22239,7 @@
     </row>
     <row r="2736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2736">
-        <v>29224</v>
+        <v>29318</v>
       </c>
       <c r="B2736">
         <v>0</v>
@@ -22251,7 +22247,7 @@
     </row>
     <row r="2737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2737">
-        <v>29318</v>
+        <v>26795</v>
       </c>
       <c r="B2737">
         <v>0</v>
@@ -22259,7 +22255,7 @@
     </row>
     <row r="2738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2738">
-        <v>26795</v>
+        <v>29220</v>
       </c>
       <c r="B2738">
         <v>0</v>
@@ -22267,7 +22263,7 @@
     </row>
     <row r="2739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2739">
-        <v>29220</v>
+        <v>26293</v>
       </c>
       <c r="B2739">
         <v>0</v>
@@ -22275,15 +22271,15 @@
     </row>
     <row r="2740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2740">
-        <v>26293</v>
+        <v>29108</v>
       </c>
       <c r="B2740">
-        <v>664000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2741">
-        <v>29108</v>
+        <v>26703</v>
       </c>
       <c r="B2741">
         <v>0</v>
@@ -22291,7 +22287,7 @@
     </row>
     <row r="2742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2742">
-        <v>26703</v>
+        <v>26798</v>
       </c>
       <c r="B2742">
         <v>0</v>
@@ -22299,7 +22295,7 @@
     </row>
     <row r="2743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2743">
-        <v>26798</v>
+        <v>29313</v>
       </c>
       <c r="B2743">
         <v>0</v>
@@ -22307,7 +22303,7 @@
     </row>
     <row r="2744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2744">
-        <v>29313</v>
+        <v>29155</v>
       </c>
       <c r="B2744">
         <v>0</v>
@@ -22315,7 +22311,7 @@
     </row>
     <row r="2745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2745">
-        <v>29155</v>
+        <v>27142</v>
       </c>
       <c r="B2745">
         <v>0</v>
@@ -22323,7 +22319,7 @@
     </row>
     <row r="2746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2746">
-        <v>27142</v>
+        <v>26711</v>
       </c>
       <c r="B2746">
         <v>0</v>
@@ -22331,7 +22327,7 @@
     </row>
     <row r="2747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2747">
-        <v>26711</v>
+        <v>29399</v>
       </c>
       <c r="B2747">
         <v>0</v>
@@ -22339,7 +22335,7 @@
     </row>
     <row r="2748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2748">
-        <v>29399</v>
+        <v>26316</v>
       </c>
       <c r="B2748">
         <v>0</v>
@@ -22347,7 +22343,7 @@
     </row>
     <row r="2749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2749">
-        <v>26316</v>
+        <v>29357</v>
       </c>
       <c r="B2749">
         <v>0</v>
@@ -22355,7 +22351,7 @@
     </row>
     <row r="2750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2750">
-        <v>29357</v>
+        <v>26720</v>
       </c>
       <c r="B2750">
         <v>0</v>
@@ -22363,7 +22359,7 @@
     </row>
     <row r="2751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2751">
-        <v>26720</v>
+        <v>27167</v>
       </c>
       <c r="B2751">
         <v>0</v>
@@ -22371,7 +22367,7 @@
     </row>
     <row r="2752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2752">
-        <v>27167</v>
+        <v>26205</v>
       </c>
       <c r="B2752">
         <v>0</v>
@@ -22379,7 +22375,7 @@
     </row>
     <row r="2753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2753">
-        <v>26205</v>
+        <v>26830</v>
       </c>
       <c r="B2753">
         <v>0</v>
@@ -22387,7 +22383,7 @@
     </row>
     <row r="2754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2754">
-        <v>26830</v>
+        <v>26283</v>
       </c>
       <c r="B2754">
         <v>0</v>
@@ -22395,7 +22391,7 @@
     </row>
     <row r="2755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2755">
-        <v>26283</v>
+        <v>26422</v>
       </c>
       <c r="B2755">
         <v>0</v>
@@ -22403,7 +22399,7 @@
     </row>
     <row r="2756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2756">
-        <v>26422</v>
+        <v>26451</v>
       </c>
       <c r="B2756">
         <v>0</v>
@@ -22411,7 +22407,7 @@
     </row>
     <row r="2757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2757">
-        <v>26451</v>
+        <v>26540</v>
       </c>
       <c r="B2757">
         <v>0</v>
@@ -22419,7 +22415,7 @@
     </row>
     <row r="2758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2758">
-        <v>26540</v>
+        <v>26334</v>
       </c>
       <c r="B2758">
         <v>0</v>
@@ -22427,7 +22423,7 @@
     </row>
     <row r="2759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2759">
-        <v>26334</v>
+        <v>29418</v>
       </c>
       <c r="B2759">
         <v>0</v>
@@ -22435,7 +22431,7 @@
     </row>
     <row r="2760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2760">
-        <v>29418</v>
+        <v>27177</v>
       </c>
       <c r="B2760">
         <v>0</v>
@@ -22443,7 +22439,7 @@
     </row>
     <row r="2761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2761">
-        <v>27177</v>
+        <v>29654</v>
       </c>
       <c r="B2761">
         <v>0</v>
@@ -22451,7 +22447,7 @@
     </row>
     <row r="2762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2762">
-        <v>29654</v>
+        <v>26320</v>
       </c>
       <c r="B2762">
         <v>0</v>
@@ -22459,7 +22455,7 @@
     </row>
     <row r="2763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2763">
-        <v>26320</v>
+        <v>30463</v>
       </c>
       <c r="B2763">
         <v>0</v>
@@ -22467,7 +22463,7 @@
     </row>
     <row r="2764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2764">
-        <v>30463</v>
+        <v>27209</v>
       </c>
       <c r="B2764">
         <v>0</v>
@@ -22475,7 +22471,7 @@
     </row>
     <row r="2765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2765">
-        <v>27209</v>
+        <v>29379</v>
       </c>
       <c r="B2765">
         <v>0</v>
@@ -22483,7 +22479,7 @@
     </row>
     <row r="2766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2766">
-        <v>29379</v>
+        <v>30625</v>
       </c>
       <c r="B2766">
         <v>0</v>
@@ -22491,7 +22487,7 @@
     </row>
     <row r="2767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2767">
-        <v>30625</v>
+        <v>27687</v>
       </c>
       <c r="B2767">
         <v>0</v>
@@ -22499,7 +22495,7 @@
     </row>
     <row r="2768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2768">
-        <v>27687</v>
+        <v>26087</v>
       </c>
       <c r="B2768">
         <v>0</v>
@@ -22507,7 +22503,7 @@
     </row>
     <row r="2769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2769">
-        <v>26087</v>
+        <v>29646</v>
       </c>
       <c r="B2769">
         <v>0</v>
@@ -22515,7 +22511,7 @@
     </row>
     <row r="2770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2770">
-        <v>29646</v>
+        <v>21054</v>
       </c>
       <c r="B2770">
         <v>0</v>
@@ -22523,7 +22519,7 @@
     </row>
     <row r="2771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2771">
-        <v>21054</v>
+        <v>24209</v>
       </c>
       <c r="B2771">
         <v>0</v>
@@ -22531,7 +22527,7 @@
     </row>
     <row r="2772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2772">
-        <v>24209</v>
+        <v>26702</v>
       </c>
       <c r="B2772">
         <v>0</v>
@@ -22539,7 +22535,7 @@
     </row>
     <row r="2773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2773">
-        <v>26702</v>
+        <v>26189</v>
       </c>
       <c r="B2773">
         <v>0</v>
@@ -22547,7 +22543,7 @@
     </row>
     <row r="2774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2774">
-        <v>26189</v>
+        <v>26261</v>
       </c>
       <c r="B2774">
         <v>0</v>
@@ -22555,7 +22551,7 @@
     </row>
     <row r="2775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2775">
-        <v>26261</v>
+        <v>30060</v>
       </c>
       <c r="B2775">
         <v>0</v>
@@ -22563,7 +22559,7 @@
     </row>
     <row r="2776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2776">
-        <v>30060</v>
+        <v>27236</v>
       </c>
       <c r="B2776">
         <v>0</v>
@@ -22571,7 +22567,7 @@
     </row>
     <row r="2777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2777">
-        <v>27236</v>
+        <v>20821</v>
       </c>
       <c r="B2777">
         <v>0</v>
@@ -22579,7 +22575,7 @@
     </row>
     <row r="2778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2778">
-        <v>20821</v>
+        <v>20880</v>
       </c>
       <c r="B2778">
         <v>0</v>
@@ -22587,7 +22583,7 @@
     </row>
     <row r="2779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2779">
-        <v>20880</v>
+        <v>26373</v>
       </c>
       <c r="B2779">
         <v>0</v>
@@ -22595,7 +22591,7 @@
     </row>
     <row r="2780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2780">
-        <v>26373</v>
+        <v>26606</v>
       </c>
       <c r="B2780">
         <v>0</v>
@@ -22603,7 +22599,7 @@
     </row>
     <row r="2781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2781">
-        <v>26606</v>
+        <v>26696</v>
       </c>
       <c r="B2781">
         <v>0</v>
@@ -22611,7 +22607,7 @@
     </row>
     <row r="2782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2782">
-        <v>26696</v>
+        <v>29445</v>
       </c>
       <c r="B2782">
         <v>0</v>
@@ -22619,7 +22615,7 @@
     </row>
     <row r="2783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2783">
-        <v>29445</v>
+        <v>20983</v>
       </c>
       <c r="B2783">
         <v>0</v>
@@ -22627,15 +22623,15 @@
     </row>
     <row r="2784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2784">
-        <v>20983</v>
+        <v>20967</v>
       </c>
       <c r="B2784">
-        <v>3720000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2785">
-        <v>20967</v>
+        <v>26013</v>
       </c>
       <c r="B2785">
         <v>0</v>
@@ -22643,7 +22639,7 @@
     </row>
     <row r="2786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2786">
-        <v>26013</v>
+        <v>25761</v>
       </c>
       <c r="B2786">
         <v>0</v>
@@ -22651,7 +22647,7 @@
     </row>
     <row r="2787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2787">
-        <v>25761</v>
+        <v>25557</v>
       </c>
       <c r="B2787">
         <v>0</v>
@@ -22659,7 +22655,7 @@
     </row>
     <row r="2788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2788">
-        <v>25557</v>
+        <v>26754</v>
       </c>
       <c r="B2788">
         <v>0</v>
@@ -22667,7 +22663,7 @@
     </row>
     <row r="2789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2789">
-        <v>26754</v>
+        <v>26556</v>
       </c>
       <c r="B2789">
         <v>0</v>
@@ -22675,7 +22671,7 @@
     </row>
     <row r="2790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2790">
-        <v>26556</v>
+        <v>26879</v>
       </c>
       <c r="B2790">
         <v>0</v>
@@ -22683,7 +22679,7 @@
     </row>
     <row r="2791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2791">
-        <v>26879</v>
+        <v>26529</v>
       </c>
       <c r="B2791">
         <v>0</v>
@@ -22691,7 +22687,7 @@
     </row>
     <row r="2792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2792">
-        <v>26529</v>
+        <v>27314</v>
       </c>
       <c r="B2792">
         <v>0</v>
@@ -22699,7 +22695,7 @@
     </row>
     <row r="2793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2793">
-        <v>27314</v>
+        <v>20905</v>
       </c>
       <c r="B2793">
         <v>0</v>
@@ -22707,7 +22703,7 @@
     </row>
     <row r="2794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2794">
-        <v>20905</v>
+        <v>20701</v>
       </c>
       <c r="B2794">
         <v>0</v>
@@ -22715,7 +22711,7 @@
     </row>
     <row r="2795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2795">
-        <v>20701</v>
+        <v>21096</v>
       </c>
       <c r="B2795">
         <v>0</v>
@@ -22723,7 +22719,7 @@
     </row>
     <row r="2796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2796">
-        <v>21096</v>
+        <v>29160</v>
       </c>
       <c r="B2796">
         <v>0</v>
@@ -22731,7 +22727,7 @@
     </row>
     <row r="2797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2797">
-        <v>29160</v>
+        <v>26492</v>
       </c>
       <c r="B2797">
         <v>0</v>
@@ -22739,47 +22735,47 @@
     </row>
     <row r="2798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2798">
-        <v>26492</v>
+        <v>27179</v>
       </c>
       <c r="B2798">
-        <v>0</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="2799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2799">
-        <v>27179</v>
+        <v>29243</v>
       </c>
       <c r="B2799">
-        <v>930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2800">
-        <v>29243</v>
+        <v>25553</v>
       </c>
       <c r="B2800">
-        <v>0</v>
+        <v>2790000</v>
       </c>
     </row>
     <row r="2801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2801">
-        <v>25553</v>
+        <v>25718</v>
       </c>
       <c r="B2801">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2802">
-        <v>25718</v>
+        <v>25688</v>
       </c>
       <c r="B2802">
-        <v>930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2803">
-        <v>25688</v>
+        <v>27106</v>
       </c>
       <c r="B2803">
         <v>0</v>
@@ -22787,7 +22783,7 @@
     </row>
     <row r="2804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2804">
-        <v>27106</v>
+        <v>26371</v>
       </c>
       <c r="B2804">
         <v>0</v>
@@ -22795,7 +22791,7 @@
     </row>
     <row r="2805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2805">
-        <v>26371</v>
+        <v>25740</v>
       </c>
       <c r="B2805">
         <v>0</v>
@@ -22803,23 +22799,23 @@
     </row>
     <row r="2806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2806">
-        <v>25740</v>
+        <v>27134</v>
       </c>
       <c r="B2806">
-        <v>2790000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2807">
-        <v>27134</v>
+        <v>29217</v>
       </c>
       <c r="B2807">
-        <v>930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2808">
-        <v>29217</v>
+        <v>21043</v>
       </c>
       <c r="B2808">
         <v>0</v>
@@ -22827,7 +22823,7 @@
     </row>
     <row r="2809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2809">
-        <v>21043</v>
+        <v>21039</v>
       </c>
       <c r="B2809">
         <v>0</v>
@@ -22835,7 +22831,7 @@
     </row>
     <row r="2810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2810">
-        <v>21039</v>
+        <v>22324</v>
       </c>
       <c r="B2810">
         <v>0</v>
@@ -22843,7 +22839,7 @@
     </row>
     <row r="2811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2811">
-        <v>22324</v>
+        <v>21094</v>
       </c>
       <c r="B2811">
         <v>0</v>
@@ -22851,15 +22847,15 @@
     </row>
     <row r="2812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2812">
-        <v>21094</v>
+        <v>25641</v>
       </c>
       <c r="B2812">
-        <v>4120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2813">
-        <v>25641</v>
+        <v>29193</v>
       </c>
       <c r="B2813">
         <v>0</v>
@@ -22867,7 +22863,7 @@
     </row>
     <row r="2814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2814">
-        <v>29193</v>
+        <v>20982</v>
       </c>
       <c r="B2814">
         <v>0</v>
@@ -22875,7 +22871,7 @@
     </row>
     <row r="2815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2815">
-        <v>20982</v>
+        <v>29420</v>
       </c>
       <c r="B2815">
         <v>0</v>
@@ -22883,15 +22879,15 @@
     </row>
     <row r="2816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2816">
-        <v>29420</v>
+        <v>20918</v>
       </c>
       <c r="B2816">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2817">
-        <v>20918</v>
+        <v>26300</v>
       </c>
       <c r="B2817">
         <v>0</v>
@@ -22899,7 +22895,7 @@
     </row>
     <row r="2818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2818">
-        <v>26300</v>
+        <v>26379</v>
       </c>
       <c r="B2818">
         <v>0</v>
@@ -22907,7 +22903,7 @@
     </row>
     <row r="2819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2819">
-        <v>26379</v>
+        <v>20863</v>
       </c>
       <c r="B2819">
         <v>0</v>
@@ -22915,15 +22911,15 @@
     </row>
     <row r="2820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2820">
-        <v>20863</v>
+        <v>22347</v>
       </c>
       <c r="B2820">
-        <v>6770000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2821">
-        <v>22347</v>
+        <v>25599</v>
       </c>
       <c r="B2821">
         <v>0</v>
@@ -22931,7 +22927,7 @@
     </row>
     <row r="2822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2822">
-        <v>25599</v>
+        <v>26498</v>
       </c>
       <c r="B2822">
         <v>0</v>
@@ -22939,7 +22935,7 @@
     </row>
     <row r="2823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2823">
-        <v>26498</v>
+        <v>26804</v>
       </c>
       <c r="B2823">
         <v>0</v>
@@ -22947,23 +22943,23 @@
     </row>
     <row r="2824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2824">
-        <v>26804</v>
+        <v>21018</v>
       </c>
       <c r="B2824">
-        <v>0</v>
+        <v>24920000</v>
       </c>
     </row>
     <row r="2825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2825">
-        <v>21018</v>
+        <v>25546</v>
       </c>
       <c r="B2825">
-        <v>24190000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2826">
-        <v>25546</v>
+        <v>26463</v>
       </c>
       <c r="B2826">
         <v>0</v>
@@ -22971,7 +22967,7 @@
     </row>
     <row r="2827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2827">
-        <v>26463</v>
+        <v>26571</v>
       </c>
       <c r="B2827">
         <v>0</v>
@@ -22979,7 +22975,7 @@
     </row>
     <row r="2828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2828">
-        <v>26571</v>
+        <v>26386</v>
       </c>
       <c r="B2828">
         <v>0</v>
@@ -22987,7 +22983,7 @@
     </row>
     <row r="2829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2829">
-        <v>26386</v>
+        <v>26203</v>
       </c>
       <c r="B2829">
         <v>0</v>
@@ -22995,7 +22991,7 @@
     </row>
     <row r="2830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2830">
-        <v>26203</v>
+        <v>29676</v>
       </c>
       <c r="B2830">
         <v>0</v>
@@ -23003,7 +22999,7 @@
     </row>
     <row r="2831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2831">
-        <v>29676</v>
+        <v>25707</v>
       </c>
       <c r="B2831">
         <v>0</v>
@@ -23011,7 +23007,7 @@
     </row>
     <row r="2832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2832">
-        <v>25707</v>
+        <v>25743</v>
       </c>
       <c r="B2832">
         <v>0</v>
@@ -23019,7 +23015,7 @@
     </row>
     <row r="2833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2833">
-        <v>25743</v>
+        <v>25995</v>
       </c>
       <c r="B2833">
         <v>0</v>
@@ -23027,31 +23023,31 @@
     </row>
     <row r="2834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2834">
-        <v>25995</v>
+        <v>21057</v>
       </c>
       <c r="B2834">
-        <v>0</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="2835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2835">
-        <v>21057</v>
+        <v>23997</v>
       </c>
       <c r="B2835">
-        <v>10590000</v>
+        <v>2120000</v>
       </c>
     </row>
     <row r="2836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2836">
-        <v>23997</v>
+        <v>29236</v>
       </c>
       <c r="B2836">
-        <v>2120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2837">
-        <v>29236</v>
+        <v>25958</v>
       </c>
       <c r="B2837">
         <v>0</v>
@@ -23059,7 +23055,7 @@
     </row>
     <row r="2838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2838">
-        <v>25958</v>
+        <v>27163</v>
       </c>
       <c r="B2838">
         <v>0</v>
@@ -23067,7 +23063,7 @@
     </row>
     <row r="2839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2839">
-        <v>27163</v>
+        <v>26550</v>
       </c>
       <c r="B2839">
         <v>0</v>
@@ -23075,7 +23071,7 @@
     </row>
     <row r="2840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2840">
-        <v>26550</v>
+        <v>25975</v>
       </c>
       <c r="B2840">
         <v>0</v>
@@ -23083,7 +23079,7 @@
     </row>
     <row r="2841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2841">
-        <v>25975</v>
+        <v>26607</v>
       </c>
       <c r="B2841">
         <v>0</v>
@@ -23091,15 +23087,15 @@
     </row>
     <row r="2842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2842">
-        <v>26607</v>
+        <v>26663</v>
       </c>
       <c r="B2842">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2843">
-        <v>26663</v>
+        <v>27194</v>
       </c>
       <c r="B2843">
         <v>0</v>
@@ -23107,7 +23103,7 @@
     </row>
     <row r="2844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2844">
-        <v>27194</v>
+        <v>25690</v>
       </c>
       <c r="B2844">
         <v>0</v>
@@ -23115,7 +23111,7 @@
     </row>
     <row r="2845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2845">
-        <v>25690</v>
+        <v>20469</v>
       </c>
       <c r="B2845">
         <v>0</v>
@@ -23123,7 +23119,7 @@
     </row>
     <row r="2846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2846">
-        <v>20469</v>
+        <v>26036</v>
       </c>
       <c r="B2846">
         <v>0</v>
@@ -23131,7 +23127,7 @@
     </row>
     <row r="2847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2847">
-        <v>26036</v>
+        <v>25689</v>
       </c>
       <c r="B2847">
         <v>0</v>
@@ -23139,7 +23135,7 @@
     </row>
     <row r="2848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2848">
-        <v>25689</v>
+        <v>25751</v>
       </c>
       <c r="B2848">
         <v>0</v>
@@ -23147,15 +23143,15 @@
     </row>
     <row r="2849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2849">
-        <v>25751</v>
+        <v>25570</v>
       </c>
       <c r="B2849">
-        <v>930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2850">
-        <v>25570</v>
+        <v>26670</v>
       </c>
       <c r="B2850">
         <v>0</v>
@@ -23163,7 +23159,7 @@
     </row>
     <row r="2851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2851">
-        <v>26670</v>
+        <v>26851</v>
       </c>
       <c r="B2851">
         <v>0</v>
@@ -23171,7 +23167,7 @@
     </row>
     <row r="2852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2852">
-        <v>26851</v>
+        <v>26802</v>
       </c>
       <c r="B2852">
         <v>0</v>
@@ -23179,23 +23175,23 @@
     </row>
     <row r="2853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2853">
-        <v>26802</v>
+        <v>26396</v>
       </c>
       <c r="B2853">
-        <v>0</v>
+        <v>2790000</v>
       </c>
     </row>
     <row r="2854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2854">
-        <v>26396</v>
+        <v>26722</v>
       </c>
       <c r="B2854">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2855">
-        <v>26722</v>
+        <v>26428</v>
       </c>
       <c r="B2855">
         <v>0</v>
@@ -23203,7 +23199,7 @@
     </row>
     <row r="2856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2856">
-        <v>26428</v>
+        <v>26238</v>
       </c>
       <c r="B2856">
         <v>0</v>
@@ -23211,7 +23207,7 @@
     </row>
     <row r="2857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2857">
-        <v>26238</v>
+        <v>26355</v>
       </c>
       <c r="B2857">
         <v>0</v>
@@ -23219,7 +23215,7 @@
     </row>
     <row r="2858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2858">
-        <v>26355</v>
+        <v>29414</v>
       </c>
       <c r="B2858">
         <v>0</v>
@@ -23227,7 +23223,7 @@
     </row>
     <row r="2859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2859">
-        <v>29414</v>
+        <v>25578</v>
       </c>
       <c r="B2859">
         <v>0</v>
@@ -23235,7 +23231,7 @@
     </row>
     <row r="2860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2860">
-        <v>25578</v>
+        <v>26250</v>
       </c>
       <c r="B2860">
         <v>0</v>
@@ -23243,7 +23239,7 @@
     </row>
     <row r="2861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2861">
-        <v>26250</v>
+        <v>26652</v>
       </c>
       <c r="B2861">
         <v>0</v>
@@ -23251,7 +23247,7 @@
     </row>
     <row r="2862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2862">
-        <v>26652</v>
+        <v>26775</v>
       </c>
       <c r="B2862">
         <v>0</v>
@@ -23259,7 +23255,7 @@
     </row>
     <row r="2863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2863">
-        <v>26775</v>
+        <v>29392</v>
       </c>
       <c r="B2863">
         <v>0</v>
@@ -23267,7 +23263,7 @@
     </row>
     <row r="2864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2864">
-        <v>29392</v>
+        <v>25625</v>
       </c>
       <c r="B2864">
         <v>0</v>
@@ -23275,7 +23271,7 @@
     </row>
     <row r="2865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2865">
-        <v>25625</v>
+        <v>29373</v>
       </c>
       <c r="B2865">
         <v>0</v>
@@ -23283,7 +23279,7 @@
     </row>
     <row r="2866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2866">
-        <v>29373</v>
+        <v>21044</v>
       </c>
       <c r="B2866">
         <v>0</v>
@@ -23291,7 +23287,7 @@
     </row>
     <row r="2867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2867">
-        <v>21044</v>
+        <v>28268</v>
       </c>
       <c r="B2867">
         <v>0</v>
@@ -23299,7 +23295,7 @@
     </row>
     <row r="2868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2868">
-        <v>28268</v>
+        <v>26273</v>
       </c>
       <c r="B2868">
         <v>0</v>
@@ -23307,15 +23303,15 @@
     </row>
     <row r="2869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2869">
-        <v>26273</v>
+        <v>29651</v>
       </c>
       <c r="B2869">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2870">
-        <v>29651</v>
+        <v>26110</v>
       </c>
       <c r="B2870">
         <v>0</v>
@@ -23323,15 +23319,15 @@
     </row>
     <row r="2871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2871">
-        <v>26110</v>
+        <v>25829</v>
       </c>
       <c r="B2871">
-        <v>2790000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2872">
-        <v>25829</v>
+        <v>26009</v>
       </c>
       <c r="B2872">
         <v>0</v>
@@ -23339,7 +23335,7 @@
     </row>
     <row r="2873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2873">
-        <v>26009</v>
+        <v>26732</v>
       </c>
       <c r="B2873">
         <v>0</v>
@@ -23347,7 +23343,7 @@
     </row>
     <row r="2874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2874">
-        <v>26732</v>
+        <v>26770</v>
       </c>
       <c r="B2874">
         <v>0</v>
@@ -23355,7 +23351,7 @@
     </row>
     <row r="2875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2875">
-        <v>26770</v>
+        <v>29408</v>
       </c>
       <c r="B2875">
         <v>0</v>
@@ -23363,7 +23359,7 @@
     </row>
     <row r="2876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2876">
-        <v>29408</v>
+        <v>27141</v>
       </c>
       <c r="B2876">
         <v>0</v>
@@ -23371,7 +23367,7 @@
     </row>
     <row r="2877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2877">
-        <v>27141</v>
+        <v>27135</v>
       </c>
       <c r="B2877">
         <v>0</v>
@@ -23379,23 +23375,23 @@
     </row>
     <row r="2878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2878">
-        <v>27135</v>
+        <v>20968</v>
       </c>
       <c r="B2878">
-        <v>0</v>
+        <v>14060000</v>
       </c>
     </row>
     <row r="2879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2879">
-        <v>20968</v>
+        <v>25952</v>
       </c>
       <c r="B2879">
-        <v>24400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2880">
-        <v>25952</v>
+        <v>20376</v>
       </c>
       <c r="B2880">
         <v>0</v>
@@ -23403,15 +23399,15 @@
     </row>
     <row r="2881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2881">
-        <v>20376</v>
+        <v>26445</v>
       </c>
       <c r="B2881">
-        <v>1860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2882">
-        <v>26445</v>
+        <v>25729</v>
       </c>
       <c r="B2882">
         <v>0</v>
@@ -23419,7 +23415,7 @@
     </row>
     <row r="2883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2883">
-        <v>25729</v>
+        <v>25502</v>
       </c>
       <c r="B2883">
         <v>0</v>
@@ -23427,7 +23423,7 @@
     </row>
     <row r="2884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2884">
-        <v>25502</v>
+        <v>26308</v>
       </c>
       <c r="B2884">
         <v>0</v>
@@ -23435,7 +23431,7 @@
     </row>
     <row r="2885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2885">
-        <v>26308</v>
+        <v>26014</v>
       </c>
       <c r="B2885">
         <v>0</v>
@@ -23443,7 +23439,7 @@
     </row>
     <row r="2886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2886">
-        <v>26014</v>
+        <v>26268</v>
       </c>
       <c r="B2886">
         <v>0</v>
@@ -23451,7 +23447,7 @@
     </row>
     <row r="2887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2887">
-        <v>26268</v>
+        <v>25883</v>
       </c>
       <c r="B2887">
         <v>0</v>
@@ -23459,7 +23455,7 @@
     </row>
     <row r="2888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2888">
-        <v>25883</v>
+        <v>25683</v>
       </c>
       <c r="B2888">
         <v>0</v>
@@ -23467,7 +23463,7 @@
     </row>
     <row r="2889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2889">
-        <v>25683</v>
+        <v>20396</v>
       </c>
       <c r="B2889">
         <v>0</v>
@@ -23475,7 +23471,7 @@
     </row>
     <row r="2890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2890">
-        <v>20396</v>
+        <v>29101</v>
       </c>
       <c r="B2890">
         <v>0</v>
@@ -23483,7 +23479,7 @@
     </row>
     <row r="2891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2891">
-        <v>29101</v>
+        <v>26149</v>
       </c>
       <c r="B2891">
         <v>0</v>
@@ -23491,31 +23487,31 @@
     </row>
     <row r="2892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2892">
-        <v>26149</v>
+        <v>22325</v>
       </c>
       <c r="B2892">
-        <v>0</v>
+        <v>6770000</v>
       </c>
     </row>
     <row r="2893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2893">
-        <v>22325</v>
+        <v>25556</v>
       </c>
       <c r="B2893">
-        <v>13540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2894">
-        <v>25556</v>
+        <v>26458</v>
       </c>
       <c r="B2894">
-        <v>450000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2895">
-        <v>26458</v>
+        <v>25691</v>
       </c>
       <c r="B2895">
         <v>0</v>
@@ -23523,7 +23519,7 @@
     </row>
     <row r="2896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2896">
-        <v>25691</v>
+        <v>25664</v>
       </c>
       <c r="B2896">
         <v>0</v>
@@ -23531,15 +23527,15 @@
     </row>
     <row r="2897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2897">
-        <v>25664</v>
+        <v>25821</v>
       </c>
       <c r="B2897">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2898">
-        <v>25821</v>
+        <v>25964</v>
       </c>
       <c r="B2898">
         <v>0</v>
@@ -23547,7 +23543,7 @@
     </row>
     <row r="2899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2899">
-        <v>25964</v>
+        <v>25780</v>
       </c>
       <c r="B2899">
         <v>0</v>
@@ -23555,7 +23551,7 @@
     </row>
     <row r="2900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2900">
-        <v>25780</v>
+        <v>20564</v>
       </c>
       <c r="B2900">
         <v>0</v>
@@ -23563,7 +23559,7 @@
     </row>
     <row r="2901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2901">
-        <v>20564</v>
+        <v>25765</v>
       </c>
       <c r="B2901">
         <v>0</v>
@@ -23571,7 +23567,7 @@
     </row>
     <row r="2902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2902">
-        <v>25765</v>
+        <v>26264</v>
       </c>
       <c r="B2902">
         <v>0</v>
@@ -23579,7 +23575,7 @@
     </row>
     <row r="2903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2903">
-        <v>26264</v>
+        <v>26436</v>
       </c>
       <c r="B2903">
         <v>0</v>
@@ -23587,7 +23583,7 @@
     </row>
     <row r="2904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2904">
-        <v>26436</v>
+        <v>26876</v>
       </c>
       <c r="B2904">
         <v>0</v>
@@ -23595,7 +23591,7 @@
     </row>
     <row r="2905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2905">
-        <v>26876</v>
+        <v>25846</v>
       </c>
       <c r="B2905">
         <v>0</v>
@@ -23603,7 +23599,7 @@
     </row>
     <row r="2906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2906">
-        <v>25846</v>
+        <v>20755</v>
       </c>
       <c r="B2906">
         <v>0</v>
@@ -23611,23 +23607,23 @@
     </row>
     <row r="2907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2907">
-        <v>20755</v>
+        <v>25639</v>
       </c>
       <c r="B2907">
-        <v>0</v>
+        <v>22540000</v>
       </c>
     </row>
     <row r="2908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2908">
-        <v>25639</v>
+        <v>26746</v>
       </c>
       <c r="B2908">
-        <v>33810000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2909">
-        <v>26746</v>
+        <v>20766</v>
       </c>
       <c r="B2909">
         <v>0</v>
@@ -23635,7 +23631,7 @@
     </row>
     <row r="2910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2910">
-        <v>20766</v>
+        <v>26480</v>
       </c>
       <c r="B2910">
         <v>0</v>
@@ -23643,7 +23639,7 @@
     </row>
     <row r="2911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2911">
-        <v>26480</v>
+        <v>27289</v>
       </c>
       <c r="B2911">
         <v>0</v>
@@ -23651,7 +23647,7 @@
     </row>
     <row r="2912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2912">
-        <v>27289</v>
+        <v>26003</v>
       </c>
       <c r="B2912">
         <v>0</v>
@@ -23659,7 +23655,7 @@
     </row>
     <row r="2913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2913">
-        <v>26003</v>
+        <v>26765</v>
       </c>
       <c r="B2913">
         <v>0</v>
@@ -23667,7 +23663,7 @@
     </row>
     <row r="2914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2914">
-        <v>26765</v>
+        <v>27183</v>
       </c>
       <c r="B2914">
         <v>0</v>
@@ -23675,7 +23671,7 @@
     </row>
     <row r="2915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2915">
-        <v>27183</v>
+        <v>20432</v>
       </c>
       <c r="B2915">
         <v>0</v>
@@ -23683,23 +23679,23 @@
     </row>
     <row r="2916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2916">
-        <v>20432</v>
+        <v>28715</v>
       </c>
       <c r="B2916">
-        <v>0</v>
+        <v>664000</v>
       </c>
     </row>
     <row r="2917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2917">
-        <v>28715</v>
+        <v>25682</v>
       </c>
       <c r="B2917">
-        <v>664000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2918">
-        <v>25682</v>
+        <v>25564</v>
       </c>
       <c r="B2918">
         <v>0</v>
@@ -23707,7 +23703,7 @@
     </row>
     <row r="2919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2919">
-        <v>25564</v>
+        <v>26850</v>
       </c>
       <c r="B2919">
         <v>0</v>
@@ -23715,7 +23711,7 @@
     </row>
     <row r="2920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2920">
-        <v>26850</v>
+        <v>25766</v>
       </c>
       <c r="B2920">
         <v>0</v>
@@ -23723,7 +23719,7 @@
     </row>
     <row r="2921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2921">
-        <v>25766</v>
+        <v>30781</v>
       </c>
       <c r="B2921">
         <v>0</v>
@@ -23731,7 +23727,7 @@
     </row>
     <row r="2922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2922">
-        <v>30781</v>
+        <v>25957</v>
       </c>
       <c r="B2922">
         <v>0</v>
@@ -23739,7 +23735,7 @@
     </row>
     <row r="2923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2923">
-        <v>25957</v>
+        <v>27272</v>
       </c>
       <c r="B2923">
         <v>0</v>
@@ -23747,7 +23743,7 @@
     </row>
     <row r="2924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2924">
-        <v>27272</v>
+        <v>26391</v>
       </c>
       <c r="B2924">
         <v>0</v>
@@ -23755,7 +23751,7 @@
     </row>
     <row r="2925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2925">
-        <v>26391</v>
+        <v>27108</v>
       </c>
       <c r="B2925">
         <v>0</v>
@@ -23763,7 +23759,7 @@
     </row>
     <row r="2926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2926">
-        <v>27108</v>
+        <v>20989</v>
       </c>
       <c r="B2926">
         <v>0</v>
@@ -23771,7 +23767,7 @@
     </row>
     <row r="2927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2927">
-        <v>20989</v>
+        <v>25647</v>
       </c>
       <c r="B2927">
         <v>0</v>
@@ -23779,7 +23775,7 @@
     </row>
     <row r="2928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2928">
-        <v>25647</v>
+        <v>25972</v>
       </c>
       <c r="B2928">
         <v>0</v>
@@ -23787,7 +23783,7 @@
     </row>
     <row r="2929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2929">
-        <v>25972</v>
+        <v>29112</v>
       </c>
       <c r="B2929">
         <v>0</v>
@@ -23795,7 +23791,7 @@
     </row>
     <row r="2930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2930">
-        <v>29112</v>
+        <v>27181</v>
       </c>
       <c r="B2930">
         <v>0</v>
@@ -23803,7 +23799,7 @@
     </row>
     <row r="2931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2931">
-        <v>27181</v>
+        <v>25677</v>
       </c>
       <c r="B2931">
         <v>0</v>
@@ -23811,7 +23807,7 @@
     </row>
     <row r="2932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2932">
-        <v>25677</v>
+        <v>25861</v>
       </c>
       <c r="B2932">
         <v>0</v>
@@ -23819,7 +23815,7 @@
     </row>
     <row r="2933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2933">
-        <v>25861</v>
+        <v>27166</v>
       </c>
       <c r="B2933">
         <v>0</v>
@@ -23827,7 +23823,7 @@
     </row>
     <row r="2934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2934">
-        <v>27166</v>
+        <v>26655</v>
       </c>
       <c r="B2934">
         <v>0</v>
@@ -23835,15 +23831,15 @@
     </row>
     <row r="2935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2935">
-        <v>26655</v>
+        <v>25590</v>
       </c>
       <c r="B2935">
-        <v>0</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="2936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2936">
-        <v>25590</v>
+        <v>27284</v>
       </c>
       <c r="B2936">
         <v>0</v>
@@ -23851,7 +23847,7 @@
     </row>
     <row r="2937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2937">
-        <v>27284</v>
+        <v>25577</v>
       </c>
       <c r="B2937">
         <v>0</v>
@@ -23859,7 +23855,7 @@
     </row>
     <row r="2938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2938">
-        <v>25577</v>
+        <v>26192</v>
       </c>
       <c r="B2938">
         <v>0</v>
@@ -23867,7 +23863,7 @@
     </row>
     <row r="2939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2939">
-        <v>26192</v>
+        <v>26922</v>
       </c>
       <c r="B2939">
         <v>0</v>
@@ -23875,15 +23871,15 @@
     </row>
     <row r="2940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2940">
-        <v>26922</v>
+        <v>25675</v>
       </c>
       <c r="B2940">
-        <v>-11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2941">
-        <v>25675</v>
+        <v>26115</v>
       </c>
       <c r="B2941">
         <v>0</v>
@@ -23891,7 +23887,7 @@
     </row>
     <row r="2942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2942">
-        <v>26115</v>
+        <v>26188</v>
       </c>
       <c r="B2942">
         <v>0</v>
@@ -23899,7 +23895,7 @@
     </row>
     <row r="2943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2943">
-        <v>26188</v>
+        <v>23986</v>
       </c>
       <c r="B2943">
         <v>0</v>
@@ -23907,7 +23903,7 @@
     </row>
     <row r="2944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2944">
-        <v>23986</v>
+        <v>28775</v>
       </c>
       <c r="B2944">
         <v>0</v>
@@ -23915,7 +23911,7 @@
     </row>
     <row r="2945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2945">
-        <v>28775</v>
+        <v>23995</v>
       </c>
       <c r="B2945">
         <v>0</v>
@@ -23923,7 +23919,7 @@
     </row>
     <row r="2946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2946">
-        <v>23995</v>
+        <v>26368</v>
       </c>
       <c r="B2946">
         <v>0</v>
@@ -23931,7 +23927,7 @@
     </row>
     <row r="2947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2947">
-        <v>26368</v>
+        <v>30780</v>
       </c>
       <c r="B2947">
         <v>0</v>
@@ -23939,7 +23935,7 @@
     </row>
     <row r="2948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2948">
-        <v>30780</v>
+        <v>26134</v>
       </c>
       <c r="B2948">
         <v>0</v>
@@ -23947,7 +23943,7 @@
     </row>
     <row r="2949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2949">
-        <v>26134</v>
+        <v>29267</v>
       </c>
       <c r="B2949">
         <v>0</v>
@@ -23955,7 +23951,7 @@
     </row>
     <row r="2950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2950">
-        <v>29267</v>
+        <v>27259</v>
       </c>
       <c r="B2950">
         <v>0</v>
@@ -23963,7 +23959,7 @@
     </row>
     <row r="2951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2951">
-        <v>27259</v>
+        <v>25752</v>
       </c>
       <c r="B2951">
         <v>0</v>
@@ -23971,7 +23967,7 @@
     </row>
     <row r="2952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2952">
-        <v>25752</v>
+        <v>25991</v>
       </c>
       <c r="B2952">
         <v>0</v>
@@ -23979,7 +23975,7 @@
     </row>
     <row r="2953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2953">
-        <v>25991</v>
+        <v>25800</v>
       </c>
       <c r="B2953">
         <v>0</v>
@@ -23987,7 +23983,7 @@
     </row>
     <row r="2954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2954">
-        <v>25800</v>
+        <v>26741</v>
       </c>
       <c r="B2954">
         <v>0</v>
@@ -23995,7 +23991,7 @@
     </row>
     <row r="2955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2955">
-        <v>26741</v>
+        <v>26412</v>
       </c>
       <c r="B2955">
         <v>0</v>
@@ -24003,7 +23999,7 @@
     </row>
     <row r="2956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2956">
-        <v>26412</v>
+        <v>27102</v>
       </c>
       <c r="B2956">
         <v>0</v>
@@ -24011,7 +24007,7 @@
     </row>
     <row r="2957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2957">
-        <v>27102</v>
+        <v>25973</v>
       </c>
       <c r="B2957">
         <v>0</v>
@@ -24019,7 +24015,7 @@
     </row>
     <row r="2958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2958">
-        <v>25973</v>
+        <v>26637</v>
       </c>
       <c r="B2958">
         <v>0</v>
@@ -24027,7 +24023,7 @@
     </row>
     <row r="2959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2959">
-        <v>26637</v>
+        <v>27190</v>
       </c>
       <c r="B2959">
         <v>0</v>
@@ -24035,7 +24031,7 @@
     </row>
     <row r="2960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2960">
-        <v>27190</v>
+        <v>26514</v>
       </c>
       <c r="B2960">
         <v>0</v>
@@ -24043,7 +24039,7 @@
     </row>
     <row r="2961" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2961">
-        <v>26514</v>
+        <v>25990</v>
       </c>
       <c r="B2961">
         <v>0</v>
@@ -24051,7 +24047,7 @@
     </row>
     <row r="2962" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2962">
-        <v>25990</v>
+        <v>20849</v>
       </c>
       <c r="B2962">
         <v>0</v>
@@ -24059,7 +24055,7 @@
     </row>
     <row r="2963" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2963">
-        <v>20849</v>
+        <v>26410</v>
       </c>
       <c r="B2963">
         <v>0</v>
@@ -24067,7 +24063,7 @@
     </row>
     <row r="2964" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2964">
-        <v>26410</v>
+        <v>26356</v>
       </c>
       <c r="B2964">
         <v>0</v>
@@ -24075,7 +24071,7 @@
     </row>
     <row r="2965" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2965">
-        <v>26356</v>
+        <v>20662</v>
       </c>
       <c r="B2965">
         <v>0</v>
@@ -24083,7 +24079,7 @@
     </row>
     <row r="2966" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2966">
-        <v>20662</v>
+        <v>25573</v>
       </c>
       <c r="B2966">
         <v>0</v>
@@ -24091,7 +24087,7 @@
     </row>
     <row r="2967" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2967">
-        <v>25573</v>
+        <v>26241</v>
       </c>
       <c r="B2967">
         <v>0</v>
@@ -24099,7 +24095,7 @@
     </row>
     <row r="2968" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2968">
-        <v>26241</v>
+        <v>20874</v>
       </c>
       <c r="B2968">
         <v>0</v>
@@ -24107,7 +24103,7 @@
     </row>
     <row r="2969" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2969">
-        <v>20874</v>
+        <v>29117</v>
       </c>
       <c r="B2969">
         <v>0</v>
@@ -24115,7 +24111,7 @@
     </row>
     <row r="2970" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2970">
-        <v>29117</v>
+        <v>27214</v>
       </c>
       <c r="B2970">
         <v>0</v>
@@ -24123,7 +24119,7 @@
     </row>
     <row r="2971" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2971">
-        <v>27214</v>
+        <v>20758</v>
       </c>
       <c r="B2971">
         <v>0</v>
@@ -24131,7 +24127,7 @@
     </row>
     <row r="2972" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2972">
-        <v>20758</v>
+        <v>26006</v>
       </c>
       <c r="B2972">
         <v>0</v>
@@ -24139,15 +24135,15 @@
     </row>
     <row r="2973" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2973">
-        <v>26006</v>
+        <v>25629</v>
       </c>
       <c r="B2973">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2974" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2974">
-        <v>25629</v>
+        <v>29038</v>
       </c>
       <c r="B2974">
         <v>0</v>
@@ -24155,7 +24151,7 @@
     </row>
     <row r="2975" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2975">
-        <v>29038</v>
+        <v>25798</v>
       </c>
       <c r="B2975">
         <v>0</v>
@@ -24163,7 +24159,7 @@
     </row>
     <row r="2976" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2976">
-        <v>25798</v>
+        <v>25612</v>
       </c>
       <c r="B2976">
         <v>0</v>
@@ -24171,7 +24167,7 @@
     </row>
     <row r="2977" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2977">
-        <v>25612</v>
+        <v>26365</v>
       </c>
       <c r="B2977">
         <v>0</v>
@@ -24179,7 +24175,7 @@
     </row>
     <row r="2978" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2978">
-        <v>26365</v>
+        <v>25666</v>
       </c>
       <c r="B2978">
         <v>0</v>
@@ -24187,7 +24183,7 @@
     </row>
     <row r="2979" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2979">
-        <v>25666</v>
+        <v>26840</v>
       </c>
       <c r="B2979">
         <v>0</v>
@@ -24195,15 +24191,15 @@
     </row>
     <row r="2980" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2980">
-        <v>26840</v>
+        <v>25509</v>
       </c>
       <c r="B2980">
-        <v>-9940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2981" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2981">
-        <v>25509</v>
+        <v>26296</v>
       </c>
       <c r="B2981">
         <v>0</v>
@@ -24211,7 +24207,7 @@
     </row>
     <row r="2982" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2982">
-        <v>26296</v>
+        <v>26826</v>
       </c>
       <c r="B2982">
         <v>0</v>
@@ -24219,7 +24215,7 @@
     </row>
     <row r="2983" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2983">
-        <v>26826</v>
+        <v>26269</v>
       </c>
       <c r="B2983">
         <v>0</v>
@@ -24227,23 +24223,23 @@
     </row>
     <row r="2984" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2984">
-        <v>26269</v>
+        <v>25728</v>
       </c>
       <c r="B2984">
-        <v>0</v>
+        <v>664000</v>
       </c>
     </row>
     <row r="2985" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2985">
-        <v>25728</v>
+        <v>26383</v>
       </c>
       <c r="B2985">
-        <v>664000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2986">
-        <v>26383</v>
+        <v>28991</v>
       </c>
       <c r="B2986">
         <v>0</v>
@@ -24251,7 +24247,7 @@
     </row>
     <row r="2987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2987">
-        <v>28991</v>
+        <v>26360</v>
       </c>
       <c r="B2987">
         <v>0</v>
@@ -24259,7 +24255,7 @@
     </row>
     <row r="2988" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2988">
-        <v>26360</v>
+        <v>20920</v>
       </c>
       <c r="B2988">
         <v>0</v>
@@ -24267,7 +24263,7 @@
     </row>
     <row r="2989" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2989">
-        <v>20920</v>
+        <v>27148</v>
       </c>
       <c r="B2989">
         <v>0</v>
@@ -24275,15 +24271,15 @@
     </row>
     <row r="2990" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2990">
-        <v>27148</v>
+        <v>27232</v>
       </c>
       <c r="B2990">
-        <v>2540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2991" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2991">
-        <v>27232</v>
+        <v>26085</v>
       </c>
       <c r="B2991">
         <v>0</v>
@@ -24291,7 +24287,7 @@
     </row>
     <row r="2992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2992">
-        <v>26085</v>
+        <v>26667</v>
       </c>
       <c r="B2992">
         <v>0</v>
@@ -24299,15 +24295,15 @@
     </row>
     <row r="2993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2993">
-        <v>25006</v>
+        <v>26146</v>
       </c>
       <c r="B2993">
-        <v>30140000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2994" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2994">
-        <v>26667</v>
+        <v>27095</v>
       </c>
       <c r="B2994">
         <v>0</v>
@@ -24315,7 +24311,7 @@
     </row>
     <row r="2995" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2995">
-        <v>26146</v>
+        <v>26167</v>
       </c>
       <c r="B2995">
         <v>0</v>
@@ -24323,7 +24319,7 @@
     </row>
     <row r="2996" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2996">
-        <v>27095</v>
+        <v>25692</v>
       </c>
       <c r="B2996">
         <v>0</v>
@@ -24331,15 +24327,15 @@
     </row>
     <row r="2997" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2997">
-        <v>26167</v>
+        <v>20778</v>
       </c>
       <c r="B2997">
-        <v>0</v>
+        <v>6770000</v>
       </c>
     </row>
     <row r="2998" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2998">
-        <v>25692</v>
+        <v>21131</v>
       </c>
       <c r="B2998">
         <v>0</v>
@@ -24347,7 +24343,7 @@
     </row>
     <row r="2999" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2999">
-        <v>20778</v>
+        <v>26377</v>
       </c>
       <c r="B2999">
         <v>0</v>
@@ -24355,7 +24351,7 @@
     </row>
     <row r="3000" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3000">
-        <v>21131</v>
+        <v>25584</v>
       </c>
       <c r="B3000">
         <v>0</v>
@@ -24363,23 +24359,23 @@
     </row>
     <row r="3001" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3001">
-        <v>26377</v>
+        <v>27869</v>
       </c>
       <c r="B3001">
-        <v>1430000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3002">
-        <v>25584</v>
+        <v>20900</v>
       </c>
       <c r="B3002">
-        <v>0</v>
+        <v>13540000</v>
       </c>
     </row>
     <row r="3003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3003">
-        <v>27869</v>
+        <v>26260</v>
       </c>
       <c r="B3003">
         <v>0</v>
@@ -24387,15 +24383,15 @@
     </row>
     <row r="3004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3004">
-        <v>20900</v>
+        <v>25643</v>
       </c>
       <c r="B3004">
-        <v>20310000</v>
+        <v>664000</v>
       </c>
     </row>
     <row r="3005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3005">
-        <v>26260</v>
+        <v>26852</v>
       </c>
       <c r="B3005">
         <v>0</v>
@@ -24403,15 +24399,15 @@
     </row>
     <row r="3006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3006">
-        <v>25643</v>
+        <v>25601</v>
       </c>
       <c r="B3006">
-        <v>664000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3007">
-        <v>26852</v>
+        <v>26398</v>
       </c>
       <c r="B3007">
         <v>0</v>
@@ -24419,15 +24415,15 @@
     </row>
     <row r="3008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3008">
-        <v>25601</v>
+        <v>20759</v>
       </c>
       <c r="B3008">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3009">
-        <v>26398</v>
+        <v>20935</v>
       </c>
       <c r="B3009">
         <v>0</v>
@@ -24435,7 +24431,7 @@
     </row>
     <row r="3010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3010">
-        <v>20759</v>
+        <v>26542</v>
       </c>
       <c r="B3010">
         <v>0</v>
@@ -24443,7 +24439,7 @@
     </row>
     <row r="3011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3011">
-        <v>20935</v>
+        <v>26312</v>
       </c>
       <c r="B3011">
         <v>0</v>
@@ -24451,7 +24447,7 @@
     </row>
     <row r="3012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3012">
-        <v>26542</v>
+        <v>26394</v>
       </c>
       <c r="B3012">
         <v>0</v>
@@ -24459,7 +24455,7 @@
     </row>
     <row r="3013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3013">
-        <v>26312</v>
+        <v>25745</v>
       </c>
       <c r="B3013">
         <v>0</v>
@@ -24467,7 +24463,7 @@
     </row>
     <row r="3014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3014">
-        <v>26394</v>
+        <v>20910</v>
       </c>
       <c r="B3014">
         <v>0</v>
@@ -24475,7 +24471,7 @@
     </row>
     <row r="3015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3015">
-        <v>25745</v>
+        <v>26272</v>
       </c>
       <c r="B3015">
         <v>0</v>
@@ -24483,7 +24479,7 @@
     </row>
     <row r="3016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3016">
-        <v>20910</v>
+        <v>25987</v>
       </c>
       <c r="B3016">
         <v>0</v>
@@ -24491,7 +24487,7 @@
     </row>
     <row r="3017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3017">
-        <v>26272</v>
+        <v>25874</v>
       </c>
       <c r="B3017">
         <v>0</v>
@@ -24499,7 +24495,7 @@
     </row>
     <row r="3018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3018">
-        <v>25987</v>
+        <v>26023</v>
       </c>
       <c r="B3018">
         <v>0</v>
@@ -24507,7 +24503,7 @@
     </row>
     <row r="3019" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3019">
-        <v>25874</v>
+        <v>20458</v>
       </c>
       <c r="B3019">
         <v>0</v>
@@ -24515,7 +24511,7 @@
     </row>
     <row r="3020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3020">
-        <v>26023</v>
+        <v>20861</v>
       </c>
       <c r="B3020">
         <v>0</v>
@@ -24523,7 +24519,7 @@
     </row>
     <row r="3021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3021">
-        <v>20458</v>
+        <v>25591</v>
       </c>
       <c r="B3021">
         <v>0</v>
@@ -24531,7 +24527,7 @@
     </row>
     <row r="3022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3022">
-        <v>20861</v>
+        <v>26207</v>
       </c>
       <c r="B3022">
         <v>0</v>
@@ -24539,7 +24535,7 @@
     </row>
     <row r="3023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3023">
-        <v>25591</v>
+        <v>26229</v>
       </c>
       <c r="B3023">
         <v>0</v>
@@ -24547,7 +24543,7 @@
     </row>
     <row r="3024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3024">
-        <v>26207</v>
+        <v>26661</v>
       </c>
       <c r="B3024">
         <v>0</v>
@@ -24555,7 +24551,7 @@
     </row>
     <row r="3025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3025">
-        <v>26229</v>
+        <v>29404</v>
       </c>
       <c r="B3025">
         <v>0</v>
@@ -24563,7 +24559,7 @@
     </row>
     <row r="3026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3026">
-        <v>26661</v>
+        <v>30835</v>
       </c>
       <c r="B3026">
         <v>0</v>
@@ -24571,15 +24567,15 @@
     </row>
     <row r="3027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3027">
-        <v>29404</v>
+        <v>26813</v>
       </c>
       <c r="B3027">
-        <v>664000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3028">
-        <v>30835</v>
+        <v>20624</v>
       </c>
       <c r="B3028">
         <v>0</v>
@@ -24587,7 +24583,7 @@
     </row>
     <row r="3029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3029">
-        <v>26813</v>
+        <v>26286</v>
       </c>
       <c r="B3029">
         <v>0</v>
@@ -24595,7 +24591,7 @@
     </row>
     <row r="3030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3030">
-        <v>20624</v>
+        <v>20973</v>
       </c>
       <c r="B3030">
         <v>0</v>
@@ -24603,7 +24599,7 @@
     </row>
     <row r="3031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3031">
-        <v>26286</v>
+        <v>26473</v>
       </c>
       <c r="B3031">
         <v>0</v>
@@ -24611,7 +24607,7 @@
     </row>
     <row r="3032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3032">
-        <v>26344</v>
+        <v>25681</v>
       </c>
       <c r="B3032">
         <v>0</v>
@@ -24619,7 +24615,7 @@
     </row>
     <row r="3033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3033">
-        <v>20973</v>
+        <v>26108</v>
       </c>
       <c r="B3033">
         <v>0</v>
@@ -24627,15 +24623,15 @@
     </row>
     <row r="3034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3034">
-        <v>26473</v>
+        <v>26160</v>
       </c>
       <c r="B3034">
-        <v>0</v>
+        <v>2120000</v>
       </c>
     </row>
     <row r="3035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3035">
-        <v>25681</v>
+        <v>26440</v>
       </c>
       <c r="B3035">
         <v>0</v>
@@ -24643,7 +24639,7 @@
     </row>
     <row r="3036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3036">
-        <v>26108</v>
+        <v>29443</v>
       </c>
       <c r="B3036">
         <v>0</v>
@@ -24651,7 +24647,7 @@
     </row>
     <row r="3037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3037">
-        <v>26160</v>
+        <v>26413</v>
       </c>
       <c r="B3037">
         <v>0</v>
@@ -24659,7 +24655,7 @@
     </row>
     <row r="3038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3038">
-        <v>26440</v>
+        <v>25663</v>
       </c>
       <c r="B3038">
         <v>0</v>
@@ -24667,7 +24663,7 @@
     </row>
     <row r="3039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3039">
-        <v>29443</v>
+        <v>26880</v>
       </c>
       <c r="B3039">
         <v>0</v>
@@ -24675,7 +24671,7 @@
     </row>
     <row r="3040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3040">
-        <v>26413</v>
+        <v>26397</v>
       </c>
       <c r="B3040">
         <v>0</v>
@@ -24683,7 +24679,7 @@
     </row>
     <row r="3041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3041">
-        <v>25663</v>
+        <v>26510</v>
       </c>
       <c r="B3041">
         <v>0</v>
@@ -24691,7 +24687,7 @@
     </row>
     <row r="3042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3042">
-        <v>26880</v>
+        <v>26256</v>
       </c>
       <c r="B3042">
         <v>0</v>
@@ -24699,7 +24695,7 @@
     </row>
     <row r="3043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3043">
-        <v>26397</v>
+        <v>27279</v>
       </c>
       <c r="B3043">
         <v>0</v>
@@ -24707,15 +24703,15 @@
     </row>
     <row r="3044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3044">
-        <v>26510</v>
+        <v>26621</v>
       </c>
       <c r="B3044">
-        <v>0</v>
+        <v>22540000</v>
       </c>
     </row>
     <row r="3045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3045">
-        <v>26256</v>
+        <v>26823</v>
       </c>
       <c r="B3045">
         <v>0</v>
@@ -24723,7 +24719,7 @@
     </row>
     <row r="3046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3046">
-        <v>27279</v>
+        <v>20531</v>
       </c>
       <c r="B3046">
         <v>0</v>
@@ -24731,15 +24727,15 @@
     </row>
     <row r="3047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3047">
-        <v>26621</v>
+        <v>26425</v>
       </c>
       <c r="B3047">
-        <v>33810000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3048">
-        <v>26823</v>
+        <v>26683</v>
       </c>
       <c r="B3048">
         <v>0</v>
@@ -24747,7 +24743,7 @@
     </row>
     <row r="3049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3049">
-        <v>20531</v>
+        <v>27146</v>
       </c>
       <c r="B3049">
         <v>0</v>
@@ -24755,7 +24751,7 @@
     </row>
     <row r="3050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3050">
-        <v>26425</v>
+        <v>26027</v>
       </c>
       <c r="B3050">
         <v>0</v>
@@ -24763,7 +24759,7 @@
     </row>
     <row r="3051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3051">
-        <v>26683</v>
+        <v>26353</v>
       </c>
       <c r="B3051">
         <v>0</v>
@@ -24771,7 +24767,7 @@
     </row>
     <row r="3052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3052">
-        <v>27146</v>
+        <v>27318</v>
       </c>
       <c r="B3052">
         <v>0</v>
@@ -24779,15 +24775,15 @@
     </row>
     <row r="3053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3053">
-        <v>26027</v>
+        <v>26824</v>
       </c>
       <c r="B3053">
-        <v>11270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3054">
-        <v>26353</v>
+        <v>28744</v>
       </c>
       <c r="B3054">
         <v>0</v>
@@ -24795,7 +24791,7 @@
     </row>
     <row r="3055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3055">
-        <v>27318</v>
+        <v>26657</v>
       </c>
       <c r="B3055">
         <v>0</v>
@@ -24803,7 +24799,7 @@
     </row>
     <row r="3056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3056">
-        <v>26824</v>
+        <v>25709</v>
       </c>
       <c r="B3056">
         <v>0</v>
@@ -24811,7 +24807,7 @@
     </row>
     <row r="3057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3057">
-        <v>28744</v>
+        <v>26585</v>
       </c>
       <c r="B3057">
         <v>0</v>
@@ -24819,7 +24815,7 @@
     </row>
     <row r="3058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3058">
-        <v>26657</v>
+        <v>26924</v>
       </c>
       <c r="B3058">
         <v>0</v>
@@ -24827,7 +24823,7 @@
     </row>
     <row r="3059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3059">
-        <v>25709</v>
+        <v>21104</v>
       </c>
       <c r="B3059">
         <v>0</v>
@@ -24835,7 +24831,7 @@
     </row>
     <row r="3060" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3060">
-        <v>26585</v>
+        <v>26837</v>
       </c>
       <c r="B3060">
         <v>0</v>
@@ -24843,7 +24839,7 @@
     </row>
     <row r="3061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3061">
-        <v>26924</v>
+        <v>29416</v>
       </c>
       <c r="B3061">
         <v>0</v>
@@ -24851,7 +24847,7 @@
     </row>
     <row r="3062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3062">
-        <v>21104</v>
+        <v>20941</v>
       </c>
       <c r="B3062">
         <v>0</v>
@@ -24859,15 +24855,15 @@
     </row>
     <row r="3063" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3063">
-        <v>26837</v>
+        <v>26218</v>
       </c>
       <c r="B3063">
-        <v>0</v>
+        <v>664000</v>
       </c>
     </row>
     <row r="3064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3064">
-        <v>29416</v>
+        <v>26056</v>
       </c>
       <c r="B3064">
         <v>0</v>
@@ -24875,7 +24871,7 @@
     </row>
     <row r="3065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3065">
-        <v>20941</v>
+        <v>25726</v>
       </c>
       <c r="B3065">
         <v>0</v>
@@ -24883,15 +24879,15 @@
     </row>
     <row r="3066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3066">
-        <v>26218</v>
+        <v>25900</v>
       </c>
       <c r="B3066">
-        <v>664000</v>
+        <v>6770000</v>
       </c>
     </row>
     <row r="3067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3067">
-        <v>26056</v>
+        <v>29120</v>
       </c>
       <c r="B3067">
         <v>0</v>
@@ -24899,7 +24895,7 @@
     </row>
     <row r="3068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3068">
-        <v>25726</v>
+        <v>29444</v>
       </c>
       <c r="B3068">
         <v>0</v>
@@ -24907,15 +24903,15 @@
     </row>
     <row r="3069" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3069">
-        <v>25900</v>
+        <v>29190</v>
       </c>
       <c r="B3069">
-        <v>13540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3070">
-        <v>29120</v>
+        <v>26405</v>
       </c>
       <c r="B3070">
         <v>0</v>
@@ -24923,7 +24919,7 @@
     </row>
     <row r="3071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3071">
-        <v>29444</v>
+        <v>26282</v>
       </c>
       <c r="B3071">
         <v>0</v>
@@ -24931,7 +24927,7 @@
     </row>
     <row r="3072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3072">
-        <v>29190</v>
+        <v>21027</v>
       </c>
       <c r="B3072">
         <v>0</v>
@@ -24939,7 +24935,7 @@
     </row>
     <row r="3073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3073">
-        <v>26405</v>
+        <v>26361</v>
       </c>
       <c r="B3073">
         <v>0</v>
@@ -24947,7 +24943,7 @@
     </row>
     <row r="3074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3074">
-        <v>26282</v>
+        <v>25893</v>
       </c>
       <c r="B3074">
         <v>0</v>
@@ -24955,7 +24951,7 @@
     </row>
     <row r="3075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3075">
-        <v>21027</v>
+        <v>27077</v>
       </c>
       <c r="B3075">
         <v>0</v>
@@ -24963,7 +24959,7 @@
     </row>
     <row r="3076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3076">
-        <v>26361</v>
+        <v>20734</v>
       </c>
       <c r="B3076">
         <v>0</v>
@@ -24971,7 +24967,7 @@
     </row>
     <row r="3077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3077">
-        <v>25893</v>
+        <v>25869</v>
       </c>
       <c r="B3077">
         <v>0</v>
@@ -24979,7 +24975,7 @@
     </row>
     <row r="3078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3078">
-        <v>27077</v>
+        <v>20742</v>
       </c>
       <c r="B3078">
         <v>0</v>
@@ -24987,7 +24983,7 @@
     </row>
     <row r="3079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3079">
-        <v>20734</v>
+        <v>26678</v>
       </c>
       <c r="B3079">
         <v>0</v>
@@ -24995,7 +24991,7 @@
     </row>
     <row r="3080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3080">
-        <v>25869</v>
+        <v>26291</v>
       </c>
       <c r="B3080">
         <v>0</v>
@@ -25003,7 +24999,7 @@
     </row>
     <row r="3081" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3081">
-        <v>20742</v>
+        <v>26016</v>
       </c>
       <c r="B3081">
         <v>0</v>
@@ -25011,7 +25007,7 @@
     </row>
     <row r="3082" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3082">
-        <v>26678</v>
+        <v>29573</v>
       </c>
       <c r="B3082">
         <v>0</v>
@@ -25019,7 +25015,7 @@
     </row>
     <row r="3083" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3083">
-        <v>26291</v>
+        <v>20507</v>
       </c>
       <c r="B3083">
         <v>0</v>
@@ -25027,7 +25023,7 @@
     </row>
     <row r="3084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3084">
-        <v>26016</v>
+        <v>27235</v>
       </c>
       <c r="B3084">
         <v>0</v>
@@ -25035,7 +25031,7 @@
     </row>
     <row r="3085" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3085">
-        <v>29573</v>
+        <v>25786</v>
       </c>
       <c r="B3085">
         <v>0</v>
@@ -25043,7 +25039,7 @@
     </row>
     <row r="3086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3086">
-        <v>20507</v>
+        <v>26433</v>
       </c>
       <c r="B3086">
         <v>0</v>
@@ -25051,7 +25047,7 @@
     </row>
     <row r="3087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3087">
-        <v>27235</v>
+        <v>20997</v>
       </c>
       <c r="B3087">
         <v>0</v>
@@ -25059,7 +25055,7 @@
     </row>
     <row r="3088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3088">
-        <v>25786</v>
+        <v>26170</v>
       </c>
       <c r="B3088">
         <v>0</v>
@@ -25067,7 +25063,7 @@
     </row>
     <row r="3089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3089">
-        <v>26433</v>
+        <v>27614</v>
       </c>
       <c r="B3089">
         <v>0</v>
@@ -25075,7 +25071,7 @@
     </row>
     <row r="3090" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3090">
-        <v>20997</v>
+        <v>29405</v>
       </c>
       <c r="B3090">
         <v>0</v>
@@ -25083,7 +25079,7 @@
     </row>
     <row r="3091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3091">
-        <v>26170</v>
+        <v>20697</v>
       </c>
       <c r="B3091">
         <v>0</v>
@@ -25091,7 +25087,7 @@
     </row>
     <row r="3092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3092">
-        <v>27614</v>
+        <v>26719</v>
       </c>
       <c r="B3092">
         <v>0</v>
@@ -25099,7 +25095,7 @@
     </row>
     <row r="3093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3093">
-        <v>29405</v>
+        <v>29356</v>
       </c>
       <c r="B3093">
         <v>0</v>
@@ -25107,7 +25103,7 @@
     </row>
     <row r="3094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3094">
-        <v>20697</v>
+        <v>26233</v>
       </c>
       <c r="B3094">
         <v>0</v>
@@ -25115,7 +25111,7 @@
     </row>
     <row r="3095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3095">
-        <v>26719</v>
+        <v>20909</v>
       </c>
       <c r="B3095">
         <v>0</v>
@@ -25123,7 +25119,7 @@
     </row>
     <row r="3096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3096">
-        <v>29356</v>
+        <v>26019</v>
       </c>
       <c r="B3096">
         <v>0</v>
@@ -25131,7 +25127,7 @@
     </row>
     <row r="3097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3097">
-        <v>26233</v>
+        <v>27143</v>
       </c>
       <c r="B3097">
         <v>0</v>
@@ -25139,7 +25135,7 @@
     </row>
     <row r="3098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3098">
-        <v>20909</v>
+        <v>25597</v>
       </c>
       <c r="B3098">
         <v>0</v>
@@ -25147,7 +25143,7 @@
     </row>
     <row r="3099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3099">
-        <v>26019</v>
+        <v>20630</v>
       </c>
       <c r="B3099">
         <v>0</v>
@@ -25155,7 +25151,7 @@
     </row>
     <row r="3100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3100">
-        <v>27143</v>
+        <v>20620</v>
       </c>
       <c r="B3100">
         <v>0</v>
@@ -25163,7 +25159,7 @@
     </row>
     <row r="3101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3101">
-        <v>25597</v>
+        <v>26032</v>
       </c>
       <c r="B3101">
         <v>0</v>
@@ -25171,7 +25167,7 @@
     </row>
     <row r="3102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3102">
-        <v>20630</v>
+        <v>26295</v>
       </c>
       <c r="B3102">
         <v>0</v>
@@ -25179,7 +25175,7 @@
     </row>
     <row r="3103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3103">
-        <v>20620</v>
+        <v>26150</v>
       </c>
       <c r="B3103">
         <v>0</v>
@@ -25187,7 +25183,7 @@
     </row>
     <row r="3104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3104">
-        <v>26032</v>
+        <v>26613</v>
       </c>
       <c r="B3104">
         <v>0</v>
@@ -25195,7 +25191,7 @@
     </row>
     <row r="3105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3105">
-        <v>26295</v>
+        <v>26409</v>
       </c>
       <c r="B3105">
         <v>0</v>
@@ -25203,7 +25199,7 @@
     </row>
     <row r="3106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3106">
-        <v>26150</v>
+        <v>21086</v>
       </c>
       <c r="B3106">
         <v>0</v>
@@ -25211,7 +25207,7 @@
     </row>
     <row r="3107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3107">
-        <v>26613</v>
+        <v>20899</v>
       </c>
       <c r="B3107">
         <v>0</v>
@@ -25219,15 +25215,15 @@
     </row>
     <row r="3108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3108">
-        <v>26409</v>
+        <v>27317</v>
       </c>
       <c r="B3108">
-        <v>0</v>
+        <v>1430000</v>
       </c>
     </row>
     <row r="3109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3109">
-        <v>21086</v>
+        <v>26771</v>
       </c>
       <c r="B3109">
         <v>0</v>
@@ -25235,7 +25231,7 @@
     </row>
     <row r="3110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3110">
-        <v>20899</v>
+        <v>25637</v>
       </c>
       <c r="B3110">
         <v>0</v>
@@ -25243,7 +25239,7 @@
     </row>
     <row r="3111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3111">
-        <v>27317</v>
+        <v>25999</v>
       </c>
       <c r="B3111">
         <v>0</v>
@@ -25251,7 +25247,7 @@
     </row>
     <row r="3112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3112">
-        <v>26771</v>
+        <v>26907</v>
       </c>
       <c r="B3112">
         <v>0</v>
@@ -25259,7 +25255,7 @@
     </row>
     <row r="3113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3113">
-        <v>25637</v>
+        <v>26717</v>
       </c>
       <c r="B3113">
         <v>0</v>
@@ -25267,7 +25263,7 @@
     </row>
     <row r="3114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3114">
-        <v>25999</v>
+        <v>26198</v>
       </c>
       <c r="B3114">
         <v>0</v>
@@ -25275,7 +25271,7 @@
     </row>
     <row r="3115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3115">
-        <v>26907</v>
+        <v>26426</v>
       </c>
       <c r="B3115">
         <v>0</v>
@@ -25283,7 +25279,7 @@
     </row>
     <row r="3116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3116">
-        <v>26717</v>
+        <v>26366</v>
       </c>
       <c r="B3116">
         <v>0</v>
@@ -25291,7 +25287,7 @@
     </row>
     <row r="3117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3117">
-        <v>26198</v>
+        <v>21048</v>
       </c>
       <c r="B3117">
         <v>0</v>
@@ -25299,7 +25295,7 @@
     </row>
     <row r="3118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3118">
-        <v>26426</v>
+        <v>26330</v>
       </c>
       <c r="B3118">
         <v>0</v>
@@ -25307,15 +25303,15 @@
     </row>
     <row r="3119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3119">
-        <v>26366</v>
+        <v>26257</v>
       </c>
       <c r="B3119">
-        <v>0</v>
+        <v>13540000</v>
       </c>
     </row>
     <row r="3120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3120">
-        <v>21048</v>
+        <v>26599</v>
       </c>
       <c r="B3120">
         <v>0</v>
@@ -25323,7 +25319,7 @@
     </row>
     <row r="3121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3121">
-        <v>26330</v>
+        <v>21062</v>
       </c>
       <c r="B3121">
         <v>0</v>
@@ -25331,15 +25327,15 @@
     </row>
     <row r="3122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3122">
-        <v>26257</v>
+        <v>20869</v>
       </c>
       <c r="B3122">
-        <v>20310000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3123">
-        <v>26599</v>
+        <v>25762</v>
       </c>
       <c r="B3123">
         <v>0</v>
@@ -25347,7 +25343,7 @@
     </row>
     <row r="3124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3124">
-        <v>21062</v>
+        <v>29400</v>
       </c>
       <c r="B3124">
         <v>0</v>
@@ -25355,7 +25351,7 @@
     </row>
     <row r="3125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3125">
-        <v>20869</v>
+        <v>26172</v>
       </c>
       <c r="B3125">
         <v>0</v>
@@ -25363,7 +25359,7 @@
     </row>
     <row r="3126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3126">
-        <v>25762</v>
+        <v>26612</v>
       </c>
       <c r="B3126">
         <v>0</v>
@@ -25371,7 +25367,7 @@
     </row>
     <row r="3127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3127">
-        <v>29400</v>
+        <v>27171</v>
       </c>
       <c r="B3127">
         <v>0</v>
@@ -25379,7 +25375,7 @@
     </row>
     <row r="3128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3128">
-        <v>26172</v>
+        <v>27204</v>
       </c>
       <c r="B3128">
         <v>0</v>
@@ -25387,7 +25383,7 @@
     </row>
     <row r="3129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3129">
-        <v>26612</v>
+        <v>26739</v>
       </c>
       <c r="B3129">
         <v>0</v>
@@ -25395,7 +25391,7 @@
     </row>
     <row r="3130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3130">
-        <v>27171</v>
+        <v>26730</v>
       </c>
       <c r="B3130">
         <v>0</v>
@@ -25403,7 +25399,7 @@
     </row>
     <row r="3131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3131">
-        <v>27204</v>
+        <v>27198</v>
       </c>
       <c r="B3131">
         <v>0</v>
@@ -25411,7 +25407,7 @@
     </row>
     <row r="3132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3132">
-        <v>26739</v>
+        <v>20769</v>
       </c>
       <c r="B3132">
         <v>0</v>
@@ -25419,7 +25415,7 @@
     </row>
     <row r="3133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3133">
-        <v>26730</v>
+        <v>26306</v>
       </c>
       <c r="B3133">
         <v>0</v>
@@ -25427,7 +25423,7 @@
     </row>
     <row r="3134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3134">
-        <v>27198</v>
+        <v>26403</v>
       </c>
       <c r="B3134">
         <v>0</v>
@@ -25435,7 +25431,7 @@
     </row>
     <row r="3135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3135">
-        <v>20769</v>
+        <v>27532</v>
       </c>
       <c r="B3135">
         <v>0</v>
@@ -25443,7 +25439,7 @@
     </row>
     <row r="3136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3136">
-        <v>26306</v>
+        <v>26649</v>
       </c>
       <c r="B3136">
         <v>0</v>
@@ -25451,7 +25447,7 @@
     </row>
     <row r="3137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3137">
-        <v>26403</v>
+        <v>25618</v>
       </c>
       <c r="B3137">
         <v>0</v>
@@ -25459,7 +25455,7 @@
     </row>
     <row r="3138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3138">
-        <v>27532</v>
+        <v>25778</v>
       </c>
       <c r="B3138">
         <v>0</v>
@@ -25467,7 +25463,7 @@
     </row>
     <row r="3139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3139">
-        <v>26649</v>
+        <v>27250</v>
       </c>
       <c r="B3139">
         <v>0</v>
@@ -25475,15 +25471,15 @@
     </row>
     <row r="3140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3140">
-        <v>25618</v>
+        <v>27251</v>
       </c>
       <c r="B3140">
-        <v>664000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3141">
-        <v>25778</v>
+        <v>25624</v>
       </c>
       <c r="B3141">
         <v>0</v>
@@ -25491,7 +25487,7 @@
     </row>
     <row r="3142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3142">
-        <v>27250</v>
+        <v>21019</v>
       </c>
       <c r="B3142">
         <v>0</v>
@@ -25499,7 +25495,7 @@
     </row>
     <row r="3143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3143">
-        <v>27251</v>
+        <v>29100</v>
       </c>
       <c r="B3143">
         <v>0</v>
@@ -25507,7 +25503,7 @@
     </row>
     <row r="3144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3144">
-        <v>25624</v>
+        <v>25779</v>
       </c>
       <c r="B3144">
         <v>0</v>
@@ -25515,7 +25511,7 @@
     </row>
     <row r="3145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3145">
-        <v>21019</v>
+        <v>25950</v>
       </c>
       <c r="B3145">
         <v>0</v>
@@ -25523,7 +25519,7 @@
     </row>
     <row r="3146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3146">
-        <v>29100</v>
+        <v>27255</v>
       </c>
       <c r="B3146">
         <v>0</v>
@@ -25531,7 +25527,7 @@
     </row>
     <row r="3147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3147">
-        <v>25779</v>
+        <v>25986</v>
       </c>
       <c r="B3147">
         <v>0</v>
@@ -25539,7 +25535,7 @@
     </row>
     <row r="3148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3148">
-        <v>25950</v>
+        <v>21136</v>
       </c>
       <c r="B3148">
         <v>0</v>
@@ -25547,7 +25543,7 @@
     </row>
     <row r="3149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3149">
-        <v>27255</v>
+        <v>25938</v>
       </c>
       <c r="B3149">
         <v>0</v>
@@ -25555,7 +25551,7 @@
     </row>
     <row r="3150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3150">
-        <v>25986</v>
+        <v>26841</v>
       </c>
       <c r="B3150">
         <v>0</v>
@@ -25563,7 +25559,7 @@
     </row>
     <row r="3151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3151">
-        <v>21136</v>
+        <v>26807</v>
       </c>
       <c r="B3151">
         <v>0</v>
@@ -25571,7 +25567,7 @@
     </row>
     <row r="3152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3152">
-        <v>25938</v>
+        <v>26883</v>
       </c>
       <c r="B3152">
         <v>0</v>
@@ -25579,7 +25575,7 @@
     </row>
     <row r="3153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3153">
-        <v>26841</v>
+        <v>27137</v>
       </c>
       <c r="B3153">
         <v>0</v>
@@ -25587,7 +25583,7 @@
     </row>
     <row r="3154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3154">
-        <v>26807</v>
+        <v>26854</v>
       </c>
       <c r="B3154">
         <v>0</v>
@@ -25595,7 +25591,7 @@
     </row>
     <row r="3155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3155">
-        <v>26883</v>
+        <v>26245</v>
       </c>
       <c r="B3155">
         <v>0</v>
@@ -25603,7 +25599,7 @@
     </row>
     <row r="3156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3156">
-        <v>27137</v>
+        <v>26902</v>
       </c>
       <c r="B3156">
         <v>0</v>
@@ -25611,7 +25607,7 @@
     </row>
     <row r="3157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3157">
-        <v>26854</v>
+        <v>25966</v>
       </c>
       <c r="B3157">
         <v>0</v>
@@ -25619,7 +25615,7 @@
     </row>
     <row r="3158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3158">
-        <v>26245</v>
+        <v>26090</v>
       </c>
       <c r="B3158">
         <v>0</v>
@@ -25627,15 +25623,15 @@
     </row>
     <row r="3159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3159">
-        <v>26902</v>
+        <v>28584</v>
       </c>
       <c r="B3159">
-        <v>664000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3160">
-        <v>25966</v>
+        <v>26869</v>
       </c>
       <c r="B3160">
         <v>0</v>
@@ -25643,7 +25639,7 @@
     </row>
     <row r="3161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3161">
-        <v>26090</v>
+        <v>21161</v>
       </c>
       <c r="B3161">
         <v>0</v>
@@ -25651,7 +25647,7 @@
     </row>
     <row r="3162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3162">
-        <v>28584</v>
+        <v>27186</v>
       </c>
       <c r="B3162">
         <v>0</v>
@@ -25659,7 +25655,7 @@
     </row>
     <row r="3163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3163">
-        <v>26869</v>
+        <v>26838</v>
       </c>
       <c r="B3163">
         <v>0</v>
@@ -25667,7 +25663,7 @@
     </row>
     <row r="3164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3164">
-        <v>21161</v>
+        <v>26626</v>
       </c>
       <c r="B3164">
         <v>0</v>
@@ -25675,7 +25671,7 @@
     </row>
     <row r="3165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3165">
-        <v>27186</v>
+        <v>26276</v>
       </c>
       <c r="B3165">
         <v>0</v>
@@ -25683,15 +25679,15 @@
     </row>
     <row r="3166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3166">
-        <v>26838</v>
+        <v>26578</v>
       </c>
       <c r="B3166">
-        <v>2540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3167">
-        <v>26626</v>
+        <v>27308</v>
       </c>
       <c r="B3167">
         <v>0</v>
@@ -25699,7 +25695,7 @@
     </row>
     <row r="3168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3168">
-        <v>26276</v>
+        <v>26587</v>
       </c>
       <c r="B3168">
         <v>0</v>
@@ -25707,7 +25703,7 @@
     </row>
     <row r="3169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3169">
-        <v>26578</v>
+        <v>28897</v>
       </c>
       <c r="B3169">
         <v>0</v>
@@ -25715,7 +25711,7 @@
     </row>
     <row r="3170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3170">
-        <v>27308</v>
+        <v>30797</v>
       </c>
       <c r="B3170">
         <v>0</v>
@@ -25723,7 +25719,7 @@
     </row>
     <row r="3171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3171">
-        <v>26587</v>
+        <v>20552</v>
       </c>
       <c r="B3171">
         <v>0</v>
@@ -25731,7 +25727,7 @@
     </row>
     <row r="3172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3172">
-        <v>28897</v>
+        <v>26089</v>
       </c>
       <c r="B3172">
         <v>0</v>
@@ -25739,7 +25735,7 @@
     </row>
     <row r="3173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3173">
-        <v>30797</v>
+        <v>26331</v>
       </c>
       <c r="B3173">
         <v>0</v>
@@ -25747,33 +25743,9 @@
     </row>
     <row r="3174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3174">
-        <v>20552</v>
+        <v>26344</v>
       </c>
       <c r="B3174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3175">
-        <v>26089</v>
-      </c>
-      <c r="B3175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3176">
-        <v>26331</v>
-      </c>
-      <c r="B3176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3177">
-        <v>26893</v>
-      </c>
-      <c r="B3177">
         <v>0</v>
       </c>
     </row>
